--- a/public/tripadvisor_demo_v_1.xlsx
+++ b/public/tripadvisor_demo_v_1.xlsx
@@ -14541,8 +14541,8 @@
   </sheetPr>
   <dimension ref="A1:O783"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="M1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O12" activeCellId="0" pane="topLeft" sqref="O12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="M43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O44" activeCellId="0" pane="topLeft" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -15960,7 +15960,7 @@
         <v>315</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="34">
       <c r="A34" s="4" t="n">
         <v>33</v>
       </c>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="O34" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="35">
       <c r="A35" s="4" t="n">
         <v>34</v>
       </c>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="O35" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="36">
       <c r="A36" s="4" t="n">
         <v>35</v>
       </c>
@@ -16358,7 +16358,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="44">
       <c r="A44" s="4" t="n">
         <v>43</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>470</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="53">
       <c r="A53" s="4" t="n">
         <v>52</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>574</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="67">
       <c r="A67" s="4" t="n">
         <v>66</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>770</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="93">
       <c r="A93" s="4" t="n">
         <v>92</v>
       </c>
@@ -19132,7 +19132,7 @@
       </c>
       <c r="O111" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="169.4" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="112">
       <c r="A112" s="4" t="n">
         <v>111</v>
       </c>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="O113" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="114">
       <c r="A114" s="4" t="n">
         <v>113</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="150">
       <c r="A150" s="4" t="n">
         <v>149</v>
       </c>
@@ -20677,7 +20677,7 @@
       </c>
       <c r="O150" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="151">
       <c r="A151" s="4" t="n">
         <v>150</v>
       </c>
@@ -20716,7 +20716,7 @@
       </c>
       <c r="O151" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="152">
       <c r="A152" s="4" t="n">
         <v>151</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="153">
       <c r="A153" s="4" t="n">
         <v>152</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="154">
       <c r="A154" s="4" t="n">
         <v>153</v>
       </c>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="O154" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="155">
       <c r="A155" s="4" t="n">
         <v>154</v>
       </c>
@@ -20876,7 +20876,7 @@
       </c>
       <c r="O155" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="156">
       <c r="A156" s="4" t="n">
         <v>155</v>
       </c>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="O156" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="157">
       <c r="A157" s="4" t="n">
         <v>156</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="158">
       <c r="A158" s="4" t="n">
         <v>157</v>
       </c>
@@ -20993,7 +20993,7 @@
       </c>
       <c r="O158" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="159">
       <c r="A159" s="4" t="n">
         <v>158</v>
       </c>
@@ -21030,7 +21030,7 @@
       </c>
       <c r="O159" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="160">
       <c r="A160" s="4" t="n">
         <v>159</v>
       </c>
@@ -21075,7 +21075,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="161">
       <c r="A161" s="4" t="n">
         <v>160</v>
       </c>
@@ -21108,7 +21108,7 @@
       <c r="N161" s="4"/>
       <c r="O161" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="162">
       <c r="A162" s="4" t="n">
         <v>161</v>
       </c>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="O162" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="163">
       <c r="A163" s="4" t="n">
         <v>162</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="164">
       <c r="A164" s="4" t="n">
         <v>163</v>
       </c>
@@ -21223,7 +21223,7 @@
       </c>
       <c r="O164" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="165">
       <c r="A165" s="4" t="n">
         <v>164</v>
       </c>
@@ -21260,7 +21260,7 @@
       </c>
       <c r="O165" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="166">
       <c r="A166" s="4" t="n">
         <v>165</v>
       </c>
@@ -21293,7 +21293,7 @@
       <c r="N166" s="4"/>
       <c r="O166" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="167">
       <c r="A167" s="4" t="n">
         <v>166</v>
       </c>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="O167" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="168">
       <c r="A168" s="4" t="n">
         <v>167</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="169">
       <c r="A169" s="4" t="n">
         <v>168</v>
       </c>
@@ -21420,7 +21420,7 @@
       </c>
       <c r="O169" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="170">
       <c r="A170" s="4" t="n">
         <v>169</v>
       </c>
@@ -21459,7 +21459,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="171">
       <c r="A171" s="4" t="n">
         <v>170</v>
       </c>
@@ -21498,7 +21498,7 @@
       </c>
       <c r="O171" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="172">
       <c r="A172" s="4" t="n">
         <v>171</v>
       </c>
@@ -21541,7 +21541,7 @@
       </c>
       <c r="O172" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="173">
       <c r="A173" s="4" t="n">
         <v>172</v>
       </c>
@@ -21582,7 +21582,7 @@
       </c>
       <c r="O173" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="174">
       <c r="A174" s="4" t="n">
         <v>173</v>
       </c>
@@ -21621,7 +21621,7 @@
       </c>
       <c r="O174" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="175">
       <c r="A175" s="4" t="n">
         <v>174</v>
       </c>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="O175" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="176">
       <c r="A176" s="4" t="n">
         <v>175</v>
       </c>
@@ -21699,7 +21699,7 @@
       </c>
       <c r="O176" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="177">
       <c r="A177" s="4" t="n">
         <v>176</v>
       </c>
@@ -21740,7 +21740,7 @@
       </c>
       <c r="O177" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="178">
       <c r="A178" s="4" t="n">
         <v>177</v>
       </c>
@@ -21785,7 +21785,7 @@
       </c>
       <c r="O178" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="179">
       <c r="A179" s="4" t="n">
         <v>178</v>
       </c>
@@ -21824,7 +21824,7 @@
       </c>
       <c r="O179" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="180">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="180">
       <c r="A180" s="4" t="n">
         <v>179</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="181">
       <c r="A181" s="4" t="n">
         <v>180</v>
       </c>
@@ -21908,7 +21908,7 @@
       </c>
       <c r="O181" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="182">
       <c r="A182" s="4" t="n">
         <v>181</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="183">
       <c r="A183" s="4" t="n">
         <v>182</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="184">
       <c r="A184" s="4" t="n">
         <v>183</v>
       </c>
@@ -22037,7 +22037,7 @@
       </c>
       <c r="O184" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="185">
       <c r="A185" s="4" t="n">
         <v>184</v>
       </c>
@@ -22076,7 +22076,7 @@
       </c>
       <c r="O185" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="186">
       <c r="A186" s="4" t="n">
         <v>185</v>
       </c>
@@ -22107,7 +22107,7 @@
       <c r="N186" s="4"/>
       <c r="O186" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="187">
       <c r="A187" s="4" t="n">
         <v>186</v>
       </c>
@@ -22152,7 +22152,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="188">
       <c r="A188" s="4" t="n">
         <v>187</v>
       </c>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="O188" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="189">
       <c r="A189" s="4" t="n">
         <v>188</v>
       </c>
@@ -22238,7 +22238,7 @@
       </c>
       <c r="O189" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="190">
       <c r="A190" s="4" t="n">
         <v>189</v>
       </c>
@@ -22283,7 +22283,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="191">
       <c r="A191" s="4" t="n">
         <v>190</v>
       </c>
@@ -22322,7 +22322,7 @@
       </c>
       <c r="O191" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="192">
       <c r="A192" s="4" t="n">
         <v>191</v>
       </c>
@@ -22359,7 +22359,7 @@
       <c r="N192" s="4"/>
       <c r="O192" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="193">
       <c r="A193" s="4" t="n">
         <v>192</v>
       </c>
@@ -22402,7 +22402,7 @@
       </c>
       <c r="O193" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="194">
       <c r="A194" s="4" t="n">
         <v>193</v>
       </c>
@@ -22437,7 +22437,7 @@
       <c r="N194" s="4"/>
       <c r="O194" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="195">
       <c r="A195" s="4" t="n">
         <v>194</v>
       </c>
@@ -22476,7 +22476,7 @@
       </c>
       <c r="O195" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="196">
       <c r="A196" s="4" t="n">
         <v>195</v>
       </c>
@@ -22519,7 +22519,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="197">
       <c r="A197" s="4" t="n">
         <v>196</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="198">
       <c r="A198" s="4" t="n">
         <v>197</v>
       </c>
@@ -22603,7 +22603,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="199">
       <c r="A199" s="4" t="n">
         <v>198</v>
       </c>
@@ -22646,7 +22646,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="200">
       <c r="A200" s="4" t="n">
         <v>199</v>
       </c>
@@ -22687,7 +22687,7 @@
       </c>
       <c r="O200" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="201">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="201">
       <c r="A201" s="4" t="n">
         <v>200</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="202">
       <c r="A202" s="4" t="n">
         <v>201</v>
       </c>
@@ -22773,7 +22773,7 @@
       </c>
       <c r="O202" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="203">
       <c r="A203" s="4" t="n">
         <v>202</v>
       </c>
@@ -22816,7 +22816,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="204">
       <c r="A204" s="4" t="n">
         <v>203</v>
       </c>
@@ -22851,7 +22851,7 @@
       <c r="N204" s="4"/>
       <c r="O204" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="205">
       <c r="A205" s="4" t="n">
         <v>204</v>
       </c>
@@ -22888,7 +22888,7 @@
       <c r="N205" s="4"/>
       <c r="O205" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="206">
       <c r="A206" s="4" t="n">
         <v>205</v>
       </c>
@@ -22925,7 +22925,7 @@
       <c r="N206" s="4"/>
       <c r="O206" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="207">
       <c r="A207" s="4" t="n">
         <v>206</v>
       </c>
@@ -22958,7 +22958,7 @@
       <c r="N207" s="4"/>
       <c r="O207" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="208">
       <c r="A208" s="4" t="n">
         <v>207</v>
       </c>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="O208" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="209">
       <c r="A209" s="4" t="n">
         <v>208</v>
       </c>
@@ -23034,7 +23034,7 @@
       <c r="N209" s="4"/>
       <c r="O209" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="210">
       <c r="A210" s="4" t="n">
         <v>209</v>
       </c>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="O210" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="211">
       <c r="A211" s="4" t="n">
         <v>210</v>
       </c>
@@ -23116,7 +23116,7 @@
       </c>
       <c r="O211" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="212">
       <c r="A212" s="4" t="n">
         <v>211</v>
       </c>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="O212" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="213">
       <c r="A213" s="4" t="n">
         <v>212</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="214">
       <c r="A214" s="4" t="n">
         <v>213</v>
       </c>
@@ -23231,7 +23231,7 @@
       <c r="N214" s="4"/>
       <c r="O214" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="215">
       <c r="A215" s="4" t="n">
         <v>214</v>
       </c>
@@ -23268,7 +23268,7 @@
       <c r="N215" s="4"/>
       <c r="O215" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="216">
       <c r="A216" s="4" t="n">
         <v>215</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="217">
       <c r="A217" s="4" t="n">
         <v>216</v>
       </c>
@@ -23348,7 +23348,7 @@
       </c>
       <c r="O217" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="218">
       <c r="A218" s="4" t="n">
         <v>217</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="219">
       <c r="A219" s="4" t="n">
         <v>218</v>
       </c>
@@ -23428,7 +23428,7 @@
       <c r="N219" s="4"/>
       <c r="O219" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="220">
       <c r="A220" s="4" t="n">
         <v>219</v>
       </c>
@@ -23471,7 +23471,7 @@
       </c>
       <c r="O220" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="221">
       <c r="A221" s="4" t="n">
         <v>220</v>
       </c>
@@ -23512,7 +23512,7 @@
       </c>
       <c r="O221" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="222">
       <c r="A222" s="4" t="n">
         <v>221</v>
       </c>
@@ -23549,7 +23549,7 @@
       </c>
       <c r="O222" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="223">
       <c r="A223" s="4" t="n">
         <v>222</v>
       </c>
@@ -23588,7 +23588,7 @@
       <c r="N223" s="4"/>
       <c r="O223" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="224">
       <c r="A224" s="4" t="n">
         <v>223</v>
       </c>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="O224" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="225">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="225">
       <c r="A225" s="4" t="n">
         <v>224</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="226">
       <c r="A226" s="4" t="n">
         <v>225</v>
       </c>
@@ -23705,7 +23705,7 @@
       <c r="N226" s="4"/>
       <c r="O226" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="227">
       <c r="A227" s="4" t="n">
         <v>226</v>
       </c>
@@ -23744,7 +23744,7 @@
       </c>
       <c r="O227" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="228">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="228">
       <c r="A228" s="4" t="n">
         <v>227</v>
       </c>
@@ -23791,7 +23791,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="229">
       <c r="A229" s="4" t="n">
         <v>228</v>
       </c>
@@ -23834,7 +23834,7 @@
       </c>
       <c r="O229" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="230">
       <c r="A230" s="4" t="n">
         <v>229</v>
       </c>
@@ -23873,7 +23873,7 @@
       </c>
       <c r="O230" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="231">
       <c r="A231" s="4" t="n">
         <v>230</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="232">
       <c r="A232" s="4" t="n">
         <v>231</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="233">
       <c r="A233" s="4" t="n">
         <v>232</v>
       </c>
@@ -24000,7 +24000,7 @@
       <c r="N233" s="4"/>
       <c r="O233" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="234">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="234">
       <c r="A234" s="4" t="n">
         <v>233</v>
       </c>
@@ -24037,7 +24037,7 @@
       </c>
       <c r="O234" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="235">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="235">
       <c r="A235" s="4" t="n">
         <v>234</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="236">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="236">
       <c r="A236" s="4" t="n">
         <v>235</v>
       </c>
@@ -24127,7 +24127,7 @@
       </c>
       <c r="O236" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="237">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="237">
       <c r="A237" s="4" t="n">
         <v>236</v>
       </c>
@@ -24166,7 +24166,7 @@
       <c r="N237" s="4"/>
       <c r="O237" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="238">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="238">
       <c r="A238" s="4" t="n">
         <v>237</v>
       </c>
@@ -24203,7 +24203,7 @@
       <c r="N238" s="4"/>
       <c r="O238" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="239">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="239">
       <c r="A239" s="4" t="n">
         <v>238</v>
       </c>
@@ -24240,7 +24240,7 @@
       <c r="N239" s="4"/>
       <c r="O239" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="240">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="240">
       <c r="A240" s="4" t="n">
         <v>239</v>
       </c>
@@ -24277,7 +24277,7 @@
       </c>
       <c r="O240" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="241">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="241">
       <c r="A241" s="4" t="n">
         <v>240</v>
       </c>
@@ -24314,7 +24314,7 @@
       <c r="N241" s="4"/>
       <c r="O241" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="242">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="242">
       <c r="A242" s="4" t="n">
         <v>241</v>
       </c>
@@ -24349,7 +24349,7 @@
       <c r="N242" s="4"/>
       <c r="O242" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="243">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="243">
       <c r="A243" s="4" t="n">
         <v>242</v>
       </c>
@@ -24384,7 +24384,7 @@
       <c r="N243" s="4"/>
       <c r="O243" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="244">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="244">
       <c r="A244" s="4" t="n">
         <v>243</v>
       </c>
@@ -24425,7 +24425,7 @@
       </c>
       <c r="O244" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="245">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="245">
       <c r="A245" s="4" t="n">
         <v>244</v>
       </c>
@@ -24460,7 +24460,7 @@
       <c r="N245" s="4"/>
       <c r="O245" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="246">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="246">
       <c r="A246" s="4" t="n">
         <v>245</v>
       </c>
@@ -24499,7 +24499,7 @@
       </c>
       <c r="O246" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="247">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="247">
       <c r="A247" s="4" t="n">
         <v>246</v>
       </c>
@@ -24538,7 +24538,7 @@
       <c r="N247" s="4"/>
       <c r="O247" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="248">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="248">
       <c r="A248" s="4" t="n">
         <v>247</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="249">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="249">
       <c r="A249" s="4" t="n">
         <v>248</v>
       </c>
@@ -24622,7 +24622,7 @@
       <c r="N249" s="4"/>
       <c r="O249" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="250">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="250">
       <c r="A250" s="4" t="n">
         <v>249</v>
       </c>
@@ -24661,7 +24661,7 @@
       <c r="N250" s="4"/>
       <c r="O250" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="251">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="251">
       <c r="A251" s="4" t="n">
         <v>250</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="252">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="252">
       <c r="A252" s="4" t="n">
         <v>251</v>
       </c>
@@ -24737,7 +24737,7 @@
       </c>
       <c r="O252" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="253">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="253">
       <c r="A253" s="4" t="n">
         <v>252</v>
       </c>
@@ -24772,7 +24772,7 @@
       <c r="N253" s="4"/>
       <c r="O253" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="254">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="254">
       <c r="A254" s="4" t="n">
         <v>253</v>
       </c>
@@ -24817,7 +24817,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="255">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="255">
       <c r="A255" s="4" t="n">
         <v>254</v>
       </c>
@@ -24858,7 +24858,7 @@
       </c>
       <c r="O255" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="256">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="256">
       <c r="A256" s="4" t="n">
         <v>255</v>
       </c>
@@ -24895,7 +24895,7 @@
       <c r="N256" s="4"/>
       <c r="O256" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="257">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="257">
       <c r="A257" s="4" t="n">
         <v>256</v>
       </c>
@@ -24930,7 +24930,7 @@
       <c r="N257" s="4"/>
       <c r="O257" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="258">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="258">
       <c r="A258" s="4" t="n">
         <v>257</v>
       </c>
@@ -24971,7 +24971,7 @@
       </c>
       <c r="O258" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="259">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="259">
       <c r="A259" s="4" t="n">
         <v>258</v>
       </c>
@@ -25006,7 +25006,7 @@
       <c r="N259" s="4"/>
       <c r="O259" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="191.75" outlineLevel="0" r="260">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="260">
       <c r="A260" s="4" t="n">
         <v>259</v>
       </c>
@@ -25051,7 +25051,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="214.15" outlineLevel="0" r="261">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="261">
       <c r="A261" s="4" t="n">
         <v>260</v>
       </c>
@@ -25098,7 +25098,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="262">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="262">
       <c r="A262" s="4" t="n">
         <v>261</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="263">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="263">
       <c r="A263" s="4" t="n">
         <v>262</v>
       </c>
@@ -25174,7 +25174,7 @@
       </c>
       <c r="O263" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="264">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="264">
       <c r="A264" s="4" t="n">
         <v>263</v>
       </c>
@@ -25211,7 +25211,7 @@
       <c r="N264" s="4"/>
       <c r="O264" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="265">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="265">
       <c r="A265" s="4" t="n">
         <v>264</v>
       </c>
@@ -25248,7 +25248,7 @@
       </c>
       <c r="O265" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="266">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="266">
       <c r="A266" s="4" t="n">
         <v>265</v>
       </c>
@@ -25287,7 +25287,7 @@
       </c>
       <c r="O266" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="267">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="267">
       <c r="A267" s="4" t="n">
         <v>266</v>
       </c>
@@ -25330,7 +25330,7 @@
       </c>
       <c r="O267" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="268">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="268">
       <c r="A268" s="4" t="n">
         <v>267</v>
       </c>
@@ -25363,7 +25363,7 @@
       <c r="N268" s="4"/>
       <c r="O268" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="269">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="269">
       <c r="A269" s="4" t="n">
         <v>268</v>
       </c>
@@ -25398,7 +25398,7 @@
       </c>
       <c r="O269" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="270">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="270">
       <c r="A270" s="4" t="n">
         <v>269</v>
       </c>
@@ -25439,7 +25439,7 @@
       <c r="N270" s="4"/>
       <c r="O270" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="271">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="271">
       <c r="A271" s="4" t="n">
         <v>270</v>
       </c>
@@ -25474,7 +25474,7 @@
       <c r="N271" s="4"/>
       <c r="O271" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="272">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="272">
       <c r="A272" s="4" t="n">
         <v>271</v>
       </c>
@@ -25511,7 +25511,7 @@
       <c r="N272" s="4"/>
       <c r="O272" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="273">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="273">
       <c r="A273" s="4" t="n">
         <v>272</v>
       </c>
@@ -25544,7 +25544,7 @@
       <c r="N273" s="4"/>
       <c r="O273" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="274">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="274">
       <c r="A274" s="4" t="n">
         <v>273</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="275">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="275">
       <c r="A275" s="4" t="n">
         <v>274</v>
       </c>
@@ -25620,7 +25620,7 @@
       <c r="N275" s="4"/>
       <c r="O275" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="276">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="276">
       <c r="A276" s="4" t="n">
         <v>275</v>
       </c>
@@ -25659,7 +25659,7 @@
       <c r="N276" s="4"/>
       <c r="O276" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="277">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="277">
       <c r="A277" s="4" t="n">
         <v>276</v>
       </c>
@@ -25696,7 +25696,7 @@
       </c>
       <c r="O277" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="278">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="278">
       <c r="A278" s="4" t="n">
         <v>277</v>
       </c>
@@ -25737,7 +25737,7 @@
       </c>
       <c r="O278" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="279">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="279">
       <c r="A279" s="4" t="n">
         <v>278</v>
       </c>
@@ -25780,7 +25780,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="280">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="280">
       <c r="A280" s="4" t="n">
         <v>279</v>
       </c>
@@ -25815,7 +25815,7 @@
       </c>
       <c r="O280" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="281">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="281">
       <c r="A281" s="4" t="n">
         <v>280</v>
       </c>
@@ -25860,7 +25860,7 @@
       </c>
       <c r="O281" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="282">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="282">
       <c r="A282" s="4" t="n">
         <v>281</v>
       </c>
@@ -25893,7 +25893,7 @@
       <c r="N282" s="4"/>
       <c r="O282" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="283">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="283">
       <c r="A283" s="4" t="n">
         <v>282</v>
       </c>
@@ -25930,7 +25930,7 @@
       </c>
       <c r="O283" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="284">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="284">
       <c r="A284" s="4" t="n">
         <v>283</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="285">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="285">
       <c r="A285" s="4" t="n">
         <v>284</v>
       </c>
@@ -26014,7 +26014,7 @@
       </c>
       <c r="O285" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="286">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="286">
       <c r="A286" s="4" t="n">
         <v>285</v>
       </c>
@@ -26053,7 +26053,7 @@
       <c r="N286" s="4"/>
       <c r="O286" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="287">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="287">
       <c r="A287" s="4" t="n">
         <v>286</v>
       </c>
@@ -26092,7 +26092,7 @@
       <c r="N287" s="4"/>
       <c r="O287" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="288">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="288">
       <c r="A288" s="4" t="n">
         <v>287</v>
       </c>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="O288" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="289">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="289">
       <c r="A289" s="4" t="n">
         <v>288</v>
       </c>
@@ -26176,7 +26176,7 @@
       </c>
       <c r="O289" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="290">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="290">
       <c r="A290" s="4" t="n">
         <v>289</v>
       </c>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="O290" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="291">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="291">
       <c r="A291" s="4" t="n">
         <v>290</v>
       </c>
@@ -26258,7 +26258,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="292">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="292">
       <c r="A292" s="4" t="n">
         <v>291</v>
       </c>
@@ -26295,7 +26295,7 @@
       </c>
       <c r="O292" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="293">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="293">
       <c r="A293" s="4" t="n">
         <v>292</v>
       </c>
@@ -26332,7 +26332,7 @@
       </c>
       <c r="O293" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="294">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="294">
       <c r="A294" s="4" t="n">
         <v>293</v>
       </c>
@@ -26369,7 +26369,7 @@
       <c r="N294" s="4"/>
       <c r="O294" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="295">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="295">
       <c r="A295" s="4" t="n">
         <v>294</v>
       </c>
@@ -26406,7 +26406,7 @@
       <c r="N295" s="4"/>
       <c r="O295" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="296">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="296">
       <c r="A296" s="4" t="n">
         <v>295</v>
       </c>
@@ -26441,7 +26441,7 @@
       </c>
       <c r="O296" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="297">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="297">
       <c r="A297" s="4" t="n">
         <v>296</v>
       </c>
@@ -26478,7 +26478,7 @@
       <c r="N297" s="4"/>
       <c r="O297" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="298">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="298">
       <c r="A298" s="4" t="n">
         <v>297</v>
       </c>
@@ -26523,7 +26523,7 @@
       </c>
       <c r="O298" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="299">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="299">
       <c r="A299" s="4" t="n">
         <v>298</v>
       </c>
@@ -26558,7 +26558,7 @@
       <c r="N299" s="4"/>
       <c r="O299" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="300">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="300">
       <c r="A300" s="4" t="n">
         <v>299</v>
       </c>
@@ -26601,7 +26601,7 @@
       </c>
       <c r="O300" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="301">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="301">
       <c r="A301" s="4" t="n">
         <v>300</v>
       </c>
@@ -26646,7 +26646,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="303.7" outlineLevel="0" r="302">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="214.15" outlineLevel="0" r="302">
       <c r="A302" s="4" t="n">
         <v>301</v>
       </c>
@@ -26691,7 +26691,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="303">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="303">
       <c r="A303" s="4" t="n">
         <v>302</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="304">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="304">
       <c r="A304" s="4" t="n">
         <v>303</v>
       </c>
@@ -26775,7 +26775,7 @@
       <c r="N304" s="4"/>
       <c r="O304" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="305">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="305">
       <c r="A305" s="4" t="n">
         <v>304</v>
       </c>
@@ -26810,7 +26810,7 @@
       <c r="N305" s="4"/>
       <c r="O305" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="306">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="306">
       <c r="A306" s="4" t="n">
         <v>305</v>
       </c>
@@ -26851,7 +26851,7 @@
       <c r="N306" s="4"/>
       <c r="O306" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="307">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="307">
       <c r="A307" s="4" t="n">
         <v>306</v>
       </c>
@@ -26892,7 +26892,7 @@
       </c>
       <c r="O307" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="308">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="308">
       <c r="A308" s="4" t="n">
         <v>307</v>
       </c>
@@ -26939,7 +26939,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="309">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="309">
       <c r="A309" s="4" t="n">
         <v>308</v>
       </c>
@@ -26980,7 +26980,7 @@
       </c>
       <c r="O309" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="310">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="310">
       <c r="A310" s="4" t="n">
         <v>309</v>
       </c>
@@ -27013,7 +27013,7 @@
       <c r="N310" s="4"/>
       <c r="O310" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="311">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="311">
       <c r="A311" s="4" t="n">
         <v>310</v>
       </c>
@@ -27052,7 +27052,7 @@
       </c>
       <c r="O311" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="312">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="312">
       <c r="A312" s="4" t="n">
         <v>311</v>
       </c>
@@ -27087,7 +27087,7 @@
       <c r="N312" s="4"/>
       <c r="O312" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="313">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="313">
       <c r="A313" s="4" t="n">
         <v>312</v>
       </c>
@@ -27126,7 +27126,7 @@
       </c>
       <c r="O313" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="314">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="314">
       <c r="A314" s="4" t="n">
         <v>313</v>
       </c>
@@ -27161,7 +27161,7 @@
       <c r="N314" s="4"/>
       <c r="O314" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="315">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="315">
       <c r="A315" s="4" t="n">
         <v>314</v>
       </c>
@@ -27202,7 +27202,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="316">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="316">
       <c r="A316" s="4" t="n">
         <v>315</v>
       </c>
@@ -27235,7 +27235,7 @@
       <c r="N316" s="4"/>
       <c r="O316" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="317">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="317">
       <c r="A317" s="4" t="n">
         <v>316</v>
       </c>
@@ -27278,7 +27278,7 @@
       </c>
       <c r="O317" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="318">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="318">
       <c r="A318" s="4" t="n">
         <v>317</v>
       </c>
@@ -27325,7 +27325,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="319">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="319">
       <c r="A319" s="4" t="n">
         <v>318</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="320">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="320">
       <c r="A320" s="4" t="n">
         <v>319</v>
       </c>
@@ -27405,7 +27405,7 @@
       <c r="N320" s="4"/>
       <c r="O320" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="321">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="321">
       <c r="A321" s="4" t="n">
         <v>320</v>
       </c>
@@ -27438,7 +27438,7 @@
       <c r="N321" s="4"/>
       <c r="O321" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="322">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="322">
       <c r="A322" s="4" t="n">
         <v>321</v>
       </c>
@@ -27471,7 +27471,7 @@
       <c r="N322" s="4"/>
       <c r="O322" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="323">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="323">
       <c r="A323" s="4" t="n">
         <v>322</v>
       </c>
@@ -27508,7 +27508,7 @@
       </c>
       <c r="O323" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="324">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="324">
       <c r="A324" s="4" t="n">
         <v>323</v>
       </c>
@@ -27541,7 +27541,7 @@
       <c r="N324" s="4"/>
       <c r="O324" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="325">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="325">
       <c r="A325" s="4" t="n">
         <v>324</v>
       </c>
@@ -27580,7 +27580,7 @@
       </c>
       <c r="O325" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="326">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="326">
       <c r="A326" s="4" t="n">
         <v>325</v>
       </c>
@@ -27619,7 +27619,7 @@
       </c>
       <c r="O326" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="327">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="327">
       <c r="A327" s="4" t="n">
         <v>326</v>
       </c>
@@ -27656,7 +27656,7 @@
       </c>
       <c r="O327" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="328">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="328">
       <c r="A328" s="4" t="n">
         <v>327</v>
       </c>
@@ -27691,7 +27691,7 @@
       <c r="N328" s="4"/>
       <c r="O328" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="329">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="329">
       <c r="A329" s="4" t="n">
         <v>328</v>
       </c>
@@ -27728,7 +27728,7 @@
       <c r="N329" s="4"/>
       <c r="O329" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="330">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="330">
       <c r="A330" s="4" t="n">
         <v>329</v>
       </c>
@@ -27763,7 +27763,7 @@
       <c r="N330" s="4"/>
       <c r="O330" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="331">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="331">
       <c r="A331" s="4" t="n">
         <v>330</v>
       </c>
@@ -27798,7 +27798,7 @@
       <c r="N331" s="4"/>
       <c r="O331" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="332">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="332">
       <c r="A332" s="4" t="n">
         <v>331</v>
       </c>
@@ -27835,7 +27835,7 @@
       <c r="N332" s="4"/>
       <c r="O332" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="333">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="333">
       <c r="A333" s="4" t="n">
         <v>332</v>
       </c>
@@ -27870,7 +27870,7 @@
       <c r="N333" s="4"/>
       <c r="O333" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="334">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="334">
       <c r="A334" s="4" t="n">
         <v>333</v>
       </c>
@@ -27911,7 +27911,7 @@
       <c r="N334" s="4"/>
       <c r="O334" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="335">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="335">
       <c r="A335" s="4" t="n">
         <v>334</v>
       </c>
@@ -27956,7 +27956,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="336">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="336">
       <c r="A336" s="4" t="n">
         <v>335</v>
       </c>
@@ -27993,7 +27993,7 @@
       </c>
       <c r="O336" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="337">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="337">
       <c r="A337" s="4" t="n">
         <v>336</v>
       </c>
@@ -28028,7 +28028,7 @@
       </c>
       <c r="O337" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="338">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="338">
       <c r="A338" s="4" t="n">
         <v>337</v>
       </c>
@@ -28061,7 +28061,7 @@
       <c r="N338" s="4"/>
       <c r="O338" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="339">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="339">
       <c r="A339" s="4" t="n">
         <v>338</v>
       </c>
@@ -28094,7 +28094,7 @@
       <c r="N339" s="4"/>
       <c r="O339" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="340">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="340">
       <c r="A340" s="4" t="n">
         <v>339</v>
       </c>
@@ -28127,7 +28127,7 @@
       <c r="N340" s="4"/>
       <c r="O340" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="341">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="341">
       <c r="A341" s="4" t="n">
         <v>340</v>
       </c>
@@ -28172,7 +28172,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="342">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="342">
       <c r="A342" s="4" t="n">
         <v>341</v>
       </c>
@@ -28207,7 +28207,7 @@
       <c r="N342" s="4"/>
       <c r="O342" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="343">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="343">
       <c r="A343" s="4" t="n">
         <v>342</v>
       </c>
@@ -28248,7 +28248,7 @@
       </c>
       <c r="O343" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="344">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="344">
       <c r="A344" s="4" t="n">
         <v>343</v>
       </c>
@@ -28283,7 +28283,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="345">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="345">
       <c r="A345" s="4" t="n">
         <v>344</v>
       </c>
@@ -28318,7 +28318,7 @@
       <c r="N345" s="4"/>
       <c r="O345" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="346">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="346">
       <c r="A346" s="4" t="n">
         <v>345</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="347">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="347">
       <c r="A347" s="4" t="n">
         <v>346</v>
       </c>
@@ -28394,7 +28394,7 @@
       <c r="N347" s="4"/>
       <c r="O347" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="348">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="348">
       <c r="A348" s="4" t="n">
         <v>347</v>
       </c>
@@ -28439,7 +28439,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="349">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="349">
       <c r="A349" s="4" t="n">
         <v>348</v>
       </c>
@@ -28478,7 +28478,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="350">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="350">
       <c r="A350" s="4" t="n">
         <v>349</v>
       </c>
@@ -28519,7 +28519,7 @@
       </c>
       <c r="O350" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="351">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="351">
       <c r="A351" s="4" t="n">
         <v>350</v>
       </c>
@@ -28554,7 +28554,7 @@
       <c r="N351" s="4"/>
       <c r="O351" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="352">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="352">
       <c r="A352" s="4" t="n">
         <v>351</v>
       </c>
@@ -28593,7 +28593,7 @@
       </c>
       <c r="O352" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="353">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="353">
       <c r="A353" s="4" t="n">
         <v>352</v>
       </c>
@@ -28636,7 +28636,7 @@
       </c>
       <c r="O353" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="354">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="354">
       <c r="A354" s="4" t="n">
         <v>353</v>
       </c>
@@ -28679,7 +28679,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="355">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="355">
       <c r="A355" s="4" t="n">
         <v>354</v>
       </c>
@@ -28716,7 +28716,7 @@
       <c r="N355" s="4"/>
       <c r="O355" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="356">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="356">
       <c r="A356" s="4" t="n">
         <v>355</v>
       </c>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="O356" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="357">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="357">
       <c r="A357" s="4" t="n">
         <v>356</v>
       </c>
@@ -28798,7 +28798,7 @@
       </c>
       <c r="O357" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="358">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="358">
       <c r="A358" s="4" t="n">
         <v>357</v>
       </c>
@@ -28839,7 +28839,7 @@
       <c r="N358" s="4"/>
       <c r="O358" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="359">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="359">
       <c r="A359" s="4" t="n">
         <v>358</v>
       </c>
@@ -28878,7 +28878,7 @@
       <c r="N359" s="4"/>
       <c r="O359" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="360">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="360">
       <c r="A360" s="4" t="n">
         <v>359</v>
       </c>
@@ -28913,7 +28913,7 @@
       <c r="N360" s="4"/>
       <c r="O360" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="361">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="361">
       <c r="A361" s="4" t="n">
         <v>360</v>
       </c>
@@ -28952,7 +28952,7 @@
       <c r="N361" s="4"/>
       <c r="O361" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="362">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="362">
       <c r="A362" s="4" t="n">
         <v>361</v>
       </c>
@@ -28993,7 +28993,7 @@
       <c r="N362" s="4"/>
       <c r="O362" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="363">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="363">
       <c r="A363" s="4" t="n">
         <v>362</v>
       </c>
@@ -29028,7 +29028,7 @@
       <c r="N363" s="4"/>
       <c r="O363" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="364">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="364">
       <c r="A364" s="4" t="n">
         <v>363</v>
       </c>
@@ -29067,7 +29067,7 @@
       </c>
       <c r="O364" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="365">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="365">
       <c r="A365" s="4" t="n">
         <v>364</v>
       </c>
@@ -29110,7 +29110,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="366">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="366">
       <c r="A366" s="4" t="n">
         <v>365</v>
       </c>
@@ -29147,7 +29147,7 @@
       </c>
       <c r="O366" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="367">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="367">
       <c r="A367" s="4" t="n">
         <v>366</v>
       </c>
@@ -29184,7 +29184,7 @@
       <c r="N367" s="4"/>
       <c r="O367" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="368">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="368">
       <c r="A368" s="4" t="n">
         <v>367</v>
       </c>
@@ -29223,7 +29223,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="369">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="369">
       <c r="A369" s="4" t="n">
         <v>368</v>
       </c>
@@ -29266,7 +29266,7 @@
       </c>
       <c r="O369" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="370">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="370">
       <c r="A370" s="4" t="n">
         <v>369</v>
       </c>
@@ -29305,7 +29305,7 @@
       </c>
       <c r="O370" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="371">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="371">
       <c r="A371" s="4" t="n">
         <v>370</v>
       </c>
@@ -29340,7 +29340,7 @@
       <c r="N371" s="4"/>
       <c r="O371" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="372">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="372">
       <c r="A372" s="4" t="n">
         <v>371</v>
       </c>
@@ -29381,7 +29381,7 @@
       </c>
       <c r="O372" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="373">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="373">
       <c r="A373" s="4" t="n">
         <v>372</v>
       </c>
@@ -29418,7 +29418,7 @@
       <c r="N373" s="4"/>
       <c r="O373" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="374">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="374">
       <c r="A374" s="4" t="n">
         <v>373</v>
       </c>
@@ -29453,7 +29453,7 @@
       <c r="N374" s="4"/>
       <c r="O374" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="375">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="375">
       <c r="A375" s="4" t="n">
         <v>374</v>
       </c>
@@ -29490,7 +29490,7 @@
       <c r="N375" s="4"/>
       <c r="O375" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="376">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="376">
       <c r="A376" s="4" t="n">
         <v>375</v>
       </c>
@@ -29564,7 +29564,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="378">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="378">
       <c r="A378" s="4" t="n">
         <v>377</v>
       </c>
@@ -29599,7 +29599,7 @@
       <c r="N378" s="4"/>
       <c r="O378" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="379">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="379">
       <c r="A379" s="4" t="n">
         <v>378</v>
       </c>
@@ -29636,7 +29636,7 @@
       <c r="N379" s="4"/>
       <c r="O379" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="380">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="380">
       <c r="A380" s="4" t="n">
         <v>379</v>
       </c>
@@ -29671,7 +29671,7 @@
       <c r="N380" s="4"/>
       <c r="O380" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="381">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="381">
       <c r="A381" s="4" t="n">
         <v>380</v>
       </c>
@@ -29714,7 +29714,7 @@
       </c>
       <c r="O381" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="382">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="382">
       <c r="A382" s="4" t="n">
         <v>381</v>
       </c>
@@ -29749,7 +29749,7 @@
       <c r="N382" s="4"/>
       <c r="O382" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="383">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="383">
       <c r="A383" s="4" t="n">
         <v>382</v>
       </c>
@@ -29786,7 +29786,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="384">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="384">
       <c r="A384" s="4" t="n">
         <v>383</v>
       </c>
@@ -29829,7 +29829,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="385">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="385">
       <c r="A385" s="4" t="n">
         <v>384</v>
       </c>
@@ -29864,7 +29864,7 @@
       </c>
       <c r="O385" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="386">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="386">
       <c r="A386" s="4" t="n">
         <v>385</v>
       </c>
@@ -29899,7 +29899,7 @@
       <c r="N386" s="4"/>
       <c r="O386" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="387">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="387">
       <c r="A387" s="4" t="n">
         <v>386</v>
       </c>
@@ -29936,7 +29936,7 @@
       <c r="N387" s="4"/>
       <c r="O387" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="388">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="388">
       <c r="A388" s="4" t="n">
         <v>387</v>
       </c>
@@ -29969,7 +29969,7 @@
       <c r="N388" s="4"/>
       <c r="O388" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="389">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="389">
       <c r="A389" s="4" t="n">
         <v>388</v>
       </c>
@@ -30002,7 +30002,7 @@
       <c r="N389" s="4"/>
       <c r="O389" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="390">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="390">
       <c r="A390" s="4" t="n">
         <v>389</v>
       </c>
@@ -30039,7 +30039,7 @@
       </c>
       <c r="O390" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="391">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="391">
       <c r="A391" s="4" t="n">
         <v>390</v>
       </c>
@@ -30074,7 +30074,7 @@
       <c r="N391" s="4"/>
       <c r="O391" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="392">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="392">
       <c r="A392" s="4" t="n">
         <v>391</v>
       </c>
@@ -30111,7 +30111,7 @@
       </c>
       <c r="O392" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="393">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="393">
       <c r="A393" s="4" t="n">
         <v>392</v>
       </c>
@@ -30146,7 +30146,7 @@
       <c r="N393" s="4"/>
       <c r="O393" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="394">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="394">
       <c r="A394" s="4" t="n">
         <v>393</v>
       </c>
@@ -30185,7 +30185,7 @@
       </c>
       <c r="O394" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="395">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="395">
       <c r="A395" s="4" t="n">
         <v>394</v>
       </c>
@@ -30220,7 +30220,7 @@
       </c>
       <c r="O395" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="396">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="396">
       <c r="A396" s="4" t="n">
         <v>395</v>
       </c>
@@ -30253,7 +30253,7 @@
       <c r="N396" s="4"/>
       <c r="O396" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="397">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="397">
       <c r="A397" s="4" t="n">
         <v>396</v>
       </c>
@@ -30292,7 +30292,7 @@
       <c r="N397" s="4"/>
       <c r="O397" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="398">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="398">
       <c r="A398" s="4" t="n">
         <v>397</v>
       </c>
@@ -30329,7 +30329,7 @@
       <c r="N398" s="4"/>
       <c r="O398" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="399">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="399">
       <c r="A399" s="4" t="n">
         <v>398</v>
       </c>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="O399" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="400">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="400">
       <c r="A400" s="4" t="n">
         <v>399</v>
       </c>
@@ -30407,7 +30407,7 @@
       <c r="N400" s="4"/>
       <c r="O400" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="401">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="401">
       <c r="A401" s="4" t="n">
         <v>400</v>
       </c>
@@ -30444,7 +30444,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="402">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="402">
       <c r="A402" s="4" t="n">
         <v>401</v>
       </c>
@@ -30483,7 +30483,7 @@
       <c r="N402" s="4"/>
       <c r="O402" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="403">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="403">
       <c r="A403" s="4" t="n">
         <v>402</v>
       </c>
@@ -30524,7 +30524,7 @@
       </c>
       <c r="O403" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="404">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="404">
       <c r="A404" s="4" t="n">
         <v>403</v>
       </c>
@@ -30561,7 +30561,7 @@
       <c r="N404" s="4"/>
       <c r="O404" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="405">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="405">
       <c r="A405" s="4" t="n">
         <v>404</v>
       </c>
@@ -30598,7 +30598,7 @@
       </c>
       <c r="O405" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="406">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="406">
       <c r="A406" s="4" t="n">
         <v>405</v>
       </c>
@@ -30633,7 +30633,7 @@
       <c r="N406" s="4"/>
       <c r="O406" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="407">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="407">
       <c r="A407" s="4" t="n">
         <v>406</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="408">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="408">
       <c r="A408" s="4" t="n">
         <v>407</v>
       </c>
@@ -30715,7 +30715,7 @@
       <c r="N408" s="4"/>
       <c r="O408" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="409">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="409">
       <c r="A409" s="4" t="n">
         <v>408</v>
       </c>
@@ -30754,7 +30754,7 @@
       </c>
       <c r="O409" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="410">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="410">
       <c r="A410" s="4" t="n">
         <v>409</v>
       </c>
@@ -30789,7 +30789,7 @@
       </c>
       <c r="O410" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="411">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="411">
       <c r="A411" s="4" t="n">
         <v>410</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="412">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="412">
       <c r="A412" s="4" t="n">
         <v>411</v>
       </c>
@@ -30857,7 +30857,7 @@
       <c r="N412" s="4"/>
       <c r="O412" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="413">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="413">
       <c r="A413" s="4" t="n">
         <v>412</v>
       </c>
@@ -30894,7 +30894,7 @@
       <c r="N413" s="4"/>
       <c r="O413" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="414">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="414">
       <c r="A414" s="4" t="n">
         <v>413</v>
       </c>
@@ -30927,7 +30927,7 @@
       <c r="N414" s="4"/>
       <c r="O414" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="415">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="415">
       <c r="A415" s="4" t="n">
         <v>414</v>
       </c>
@@ -30962,7 +30962,7 @@
       <c r="N415" s="4"/>
       <c r="O415" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="416">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="416">
       <c r="A416" s="4" t="n">
         <v>415</v>
       </c>
@@ -30995,7 +30995,7 @@
       <c r="N416" s="4"/>
       <c r="O416" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="417">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="417">
       <c r="A417" s="4" t="n">
         <v>416</v>
       </c>
@@ -31028,7 +31028,7 @@
       <c r="N417" s="4"/>
       <c r="O417" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="418">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="418">
       <c r="A418" s="4" t="n">
         <v>417</v>
       </c>
@@ -31067,7 +31067,7 @@
       <c r="N418" s="4"/>
       <c r="O418" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="419">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="419">
       <c r="A419" s="4" t="n">
         <v>418</v>
       </c>
@@ -31110,7 +31110,7 @@
       </c>
       <c r="O419" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="420">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="420">
       <c r="A420" s="4" t="n">
         <v>419</v>
       </c>
@@ -31143,7 +31143,7 @@
       <c r="N420" s="4"/>
       <c r="O420" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="421">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="421">
       <c r="A421" s="4" t="n">
         <v>420</v>
       </c>
@@ -31184,7 +31184,7 @@
       <c r="N421" s="4"/>
       <c r="O421" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="422">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="422">
       <c r="A422" s="4" t="n">
         <v>421</v>
       </c>
@@ -31219,7 +31219,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="423">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="423">
       <c r="A423" s="4" t="n">
         <v>422</v>
       </c>
@@ -31258,7 +31258,7 @@
       <c r="N423" s="4"/>
       <c r="O423" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="424">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="424">
       <c r="A424" s="4" t="n">
         <v>423</v>
       </c>
@@ -31291,7 +31291,7 @@
       <c r="N424" s="4"/>
       <c r="O424" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="425">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="425">
       <c r="A425" s="4" t="n">
         <v>424</v>
       </c>
@@ -31324,7 +31324,7 @@
       <c r="N425" s="4"/>
       <c r="O425" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="426">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="426">
       <c r="A426" s="4" t="n">
         <v>425</v>
       </c>
@@ -31359,7 +31359,7 @@
       <c r="N426" s="4"/>
       <c r="O426" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="427">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="427">
       <c r="A427" s="4" t="n">
         <v>426</v>
       </c>
@@ -31402,7 +31402,7 @@
       </c>
       <c r="O427" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="428">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="428">
       <c r="A428" s="4" t="n">
         <v>427</v>
       </c>
@@ -31441,7 +31441,7 @@
       </c>
       <c r="O428" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="429">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="429">
       <c r="A429" s="4" t="n">
         <v>428</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="430">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="430">
       <c r="A430" s="4" t="n">
         <v>429</v>
       </c>
@@ -31513,7 +31513,7 @@
       <c r="N430" s="4"/>
       <c r="O430" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="431">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="431">
       <c r="A431" s="4" t="n">
         <v>430</v>
       </c>
@@ -31550,7 +31550,7 @@
       <c r="N431" s="4"/>
       <c r="O431" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="432">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="432">
       <c r="A432" s="4" t="n">
         <v>431</v>
       </c>
@@ -31593,7 +31593,7 @@
       </c>
       <c r="O432" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="433">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="433">
       <c r="A433" s="4" t="n">
         <v>432</v>
       </c>
@@ -31640,7 +31640,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="434">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="434">
       <c r="A434" s="4" t="n">
         <v>433</v>
       </c>
@@ -31677,7 +31677,7 @@
       <c r="N434" s="4"/>
       <c r="O434" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="435">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="435">
       <c r="A435" s="4" t="n">
         <v>434</v>
       </c>
@@ -31712,7 +31712,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="436">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="436">
       <c r="A436" s="4" t="n">
         <v>435</v>
       </c>
@@ -31749,7 +31749,7 @@
       <c r="N436" s="4"/>
       <c r="O436" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="437">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="437">
       <c r="A437" s="4" t="n">
         <v>436</v>
       </c>
@@ -31784,7 +31784,7 @@
       <c r="N437" s="4"/>
       <c r="O437" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="438">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="438">
       <c r="A438" s="4" t="n">
         <v>437</v>
       </c>
@@ -31825,7 +31825,7 @@
       <c r="N438" s="4"/>
       <c r="O438" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="439">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="439">
       <c r="A439" s="4" t="n">
         <v>438</v>
       </c>
@@ -31864,7 +31864,7 @@
       <c r="N439" s="4"/>
       <c r="O439" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="440">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="440">
       <c r="A440" s="4" t="n">
         <v>439</v>
       </c>
@@ -31897,7 +31897,7 @@
       <c r="N440" s="4"/>
       <c r="O440" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="441">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="441">
       <c r="A441" s="4" t="n">
         <v>440</v>
       </c>
@@ -31934,7 +31934,7 @@
       <c r="N441" s="4"/>
       <c r="O441" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="442">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="442">
       <c r="A442" s="4" t="n">
         <v>441</v>
       </c>
@@ -31973,7 +31973,7 @@
       <c r="N442" s="4"/>
       <c r="O442" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="443">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="443">
       <c r="A443" s="4" t="n">
         <v>442</v>
       </c>
@@ -32010,7 +32010,7 @@
       </c>
       <c r="O443" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="444">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="444">
       <c r="A444" s="4" t="n">
         <v>443</v>
       </c>
@@ -32049,7 +32049,7 @@
       </c>
       <c r="O444" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="445">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="445">
       <c r="A445" s="4" t="n">
         <v>444</v>
       </c>
@@ -32088,7 +32088,7 @@
       <c r="N445" s="4"/>
       <c r="O445" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="446">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="446">
       <c r="A446" s="4" t="n">
         <v>445</v>
       </c>
@@ -32121,7 +32121,7 @@
       <c r="N446" s="4"/>
       <c r="O446" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="447">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="447">
       <c r="A447" s="4" t="n">
         <v>446</v>
       </c>
@@ -32156,7 +32156,7 @@
       <c r="N447" s="4"/>
       <c r="O447" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="448">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="448">
       <c r="A448" s="4" t="n">
         <v>447</v>
       </c>
@@ -32199,7 +32199,7 @@
       </c>
       <c r="O448" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="449">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="449">
       <c r="A449" s="4" t="n">
         <v>448</v>
       </c>
@@ -32238,7 +32238,7 @@
       <c r="N449" s="4"/>
       <c r="O449" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="450">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="450">
       <c r="A450" s="4" t="n">
         <v>449</v>
       </c>
@@ -32275,7 +32275,7 @@
       <c r="N450" s="4"/>
       <c r="O450" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="451">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="451">
       <c r="A451" s="4" t="n">
         <v>450</v>
       </c>
@@ -32310,7 +32310,7 @@
       <c r="N451" s="4"/>
       <c r="O451" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="452">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="452">
       <c r="A452" s="4" t="n">
         <v>451</v>
       </c>
@@ -32345,7 +32345,7 @@
       <c r="N452" s="4"/>
       <c r="O452" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="453">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="453">
       <c r="A453" s="4" t="n">
         <v>452</v>
       </c>
@@ -32382,7 +32382,7 @@
       <c r="N453" s="4"/>
       <c r="O453" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="454">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="454">
       <c r="A454" s="4" t="n">
         <v>453</v>
       </c>
@@ -32421,7 +32421,7 @@
       <c r="N454" s="4"/>
       <c r="O454" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="455">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="455">
       <c r="A455" s="4" t="n">
         <v>454</v>
       </c>
@@ -32454,7 +32454,7 @@
       <c r="N455" s="4"/>
       <c r="O455" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="456">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="456">
       <c r="A456" s="4" t="n">
         <v>455</v>
       </c>
@@ -32487,7 +32487,7 @@
       <c r="N456" s="4"/>
       <c r="O456" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="457">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="457">
       <c r="A457" s="4" t="n">
         <v>456</v>
       </c>
@@ -32522,7 +32522,7 @@
       <c r="N457" s="4"/>
       <c r="O457" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="458">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="458">
       <c r="A458" s="4" t="n">
         <v>457</v>
       </c>
@@ -32563,7 +32563,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="459">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="459">
       <c r="A459" s="4" t="n">
         <v>458</v>
       </c>
@@ -32594,7 +32594,7 @@
       <c r="N459" s="4"/>
       <c r="O459" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="460">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="460">
       <c r="A460" s="4" t="n">
         <v>459</v>
       </c>
@@ -32631,7 +32631,7 @@
       </c>
       <c r="O460" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="461">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="461">
       <c r="A461" s="4" t="n">
         <v>460</v>
       </c>
@@ -32668,7 +32668,7 @@
       </c>
       <c r="O461" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="462">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="462">
       <c r="A462" s="4" t="n">
         <v>461</v>
       </c>
@@ -32703,7 +32703,7 @@
       </c>
       <c r="O462" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="463">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="463">
       <c r="A463" s="4" t="n">
         <v>462</v>
       </c>
@@ -32748,7 +32748,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="464">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="464">
       <c r="A464" s="4" t="n">
         <v>463</v>
       </c>
@@ -32787,7 +32787,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="465">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="465">
       <c r="A465" s="4" t="n">
         <v>464</v>
       </c>
@@ -32826,7 +32826,7 @@
       <c r="N465" s="4"/>
       <c r="O465" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="466">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="466">
       <c r="A466" s="4" t="n">
         <v>465</v>
       </c>
@@ -32863,7 +32863,7 @@
       </c>
       <c r="O466" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="467">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="467">
       <c r="A467" s="4" t="n">
         <v>466</v>
       </c>
@@ -32896,7 +32896,7 @@
       <c r="N467" s="4"/>
       <c r="O467" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="468">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="468">
       <c r="A468" s="4" t="n">
         <v>467</v>
       </c>
@@ -32935,7 +32935,7 @@
       </c>
       <c r="O468" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="469">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="469">
       <c r="A469" s="4" t="n">
         <v>468</v>
       </c>
@@ -32970,7 +32970,7 @@
       <c r="N469" s="4"/>
       <c r="O469" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="470">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="470">
       <c r="A470" s="4" t="n">
         <v>469</v>
       </c>
@@ -33005,7 +33005,7 @@
       <c r="N470" s="4"/>
       <c r="O470" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="471">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="471">
       <c r="A471" s="4" t="n">
         <v>470</v>
       </c>
@@ -33046,7 +33046,7 @@
       <c r="N471" s="4"/>
       <c r="O471" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="472">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="472">
       <c r="A472" s="4" t="n">
         <v>471</v>
       </c>
@@ -33083,7 +33083,7 @@
       <c r="N472" s="4"/>
       <c r="O472" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="473">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="473">
       <c r="A473" s="4" t="n">
         <v>472</v>
       </c>
@@ -33118,7 +33118,7 @@
       </c>
       <c r="O473" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="474">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="474">
       <c r="A474" s="4" t="n">
         <v>473</v>
       </c>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="O474" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="475">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="475">
       <c r="A475" s="4" t="n">
         <v>474</v>
       </c>
@@ -33194,7 +33194,7 @@
       </c>
       <c r="O475" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="476">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="476">
       <c r="A476" s="4" t="n">
         <v>475</v>
       </c>
@@ -33229,7 +33229,7 @@
       </c>
       <c r="O476" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="477">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="477">
       <c r="A477" s="4" t="n">
         <v>476</v>
       </c>
@@ -33272,7 +33272,7 @@
       </c>
       <c r="O477" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="478">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="478">
       <c r="A478" s="4" t="n">
         <v>477</v>
       </c>
@@ -33311,7 +33311,7 @@
       </c>
       <c r="O478" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="479">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="479">
       <c r="A479" s="4" t="n">
         <v>478</v>
       </c>
@@ -33352,7 +33352,7 @@
       </c>
       <c r="O479" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="480">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="480">
       <c r="A480" s="4" t="n">
         <v>479</v>
       </c>
@@ -33389,7 +33389,7 @@
       <c r="N480" s="4"/>
       <c r="O480" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="481">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="481">
       <c r="A481" s="4" t="n">
         <v>480</v>
       </c>
@@ -33432,7 +33432,7 @@
       </c>
       <c r="O481" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="482">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="482">
       <c r="A482" s="4" t="n">
         <v>481</v>
       </c>
@@ -33469,7 +33469,7 @@
       <c r="N482" s="4"/>
       <c r="O482" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="483">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="483">
       <c r="A483" s="4" t="n">
         <v>482</v>
       </c>
@@ -33510,7 +33510,7 @@
       <c r="N483" s="4"/>
       <c r="O483" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="484">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="484">
       <c r="A484" s="4" t="n">
         <v>483</v>
       </c>
@@ -33551,7 +33551,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="485">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="485">
       <c r="A485" s="4" t="n">
         <v>484</v>
       </c>
@@ -33584,7 +33584,7 @@
       <c r="N485" s="4"/>
       <c r="O485" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="486">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="486">
       <c r="A486" s="4" t="n">
         <v>485</v>
       </c>
@@ -33621,7 +33621,7 @@
       <c r="N486" s="4"/>
       <c r="O486" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="487">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="487">
       <c r="A487" s="4" t="n">
         <v>486</v>
       </c>
@@ -33660,7 +33660,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="488">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="488">
       <c r="A488" s="4" t="n">
         <v>487</v>
       </c>
@@ -33699,7 +33699,7 @@
       <c r="N488" s="4"/>
       <c r="O488" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="489">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="489">
       <c r="A489" s="4" t="n">
         <v>488</v>
       </c>
@@ -33734,7 +33734,7 @@
       <c r="N489" s="4"/>
       <c r="O489" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="490">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="490">
       <c r="A490" s="4" t="n">
         <v>489</v>
       </c>
@@ -33771,7 +33771,7 @@
       </c>
       <c r="O490" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="491">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="491">
       <c r="A491" s="4" t="n">
         <v>490</v>
       </c>
@@ -33810,7 +33810,7 @@
       <c r="N491" s="4"/>
       <c r="O491" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="492">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="492">
       <c r="A492" s="4" t="n">
         <v>491</v>
       </c>
@@ -33847,7 +33847,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="493">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="493">
       <c r="A493" s="4" t="n">
         <v>492</v>
       </c>
@@ -33886,7 +33886,7 @@
       <c r="N493" s="4"/>
       <c r="O493" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="494">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="494">
       <c r="A494" s="4" t="n">
         <v>493</v>
       </c>
@@ -33921,7 +33921,7 @@
       <c r="N494" s="4"/>
       <c r="O494" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="495">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="495">
       <c r="A495" s="4" t="n">
         <v>494</v>
       </c>
@@ -33952,7 +33952,7 @@
       <c r="N495" s="4"/>
       <c r="O495" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="496">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="496">
       <c r="A496" s="4" t="n">
         <v>495</v>
       </c>
@@ -33993,7 +33993,7 @@
       <c r="N496" s="4"/>
       <c r="O496" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="497">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="497">
       <c r="A497" s="4" t="n">
         <v>496</v>
       </c>
@@ -34028,7 +34028,7 @@
       <c r="N497" s="4"/>
       <c r="O497" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="498">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="498">
       <c r="A498" s="4" t="n">
         <v>497</v>
       </c>
@@ -34069,7 +34069,7 @@
       </c>
       <c r="O498" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="499">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="499">
       <c r="A499" s="4" t="n">
         <v>498</v>
       </c>
@@ -34102,7 +34102,7 @@
       <c r="N499" s="4"/>
       <c r="O499" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="500">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="500">
       <c r="A500" s="4" t="n">
         <v>499</v>
       </c>
@@ -34147,7 +34147,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="501">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="501">
       <c r="A501" s="4" t="n">
         <v>500</v>
       </c>
@@ -34182,7 +34182,7 @@
       </c>
       <c r="O501" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="502">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="502">
       <c r="A502" s="4" t="n">
         <v>501</v>
       </c>
@@ -34221,7 +34221,7 @@
       </c>
       <c r="O502" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="503">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="503">
       <c r="A503" s="4" t="n">
         <v>502</v>
       </c>
@@ -34262,7 +34262,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="504">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="504">
       <c r="A504" s="4" t="n">
         <v>503</v>
       </c>
@@ -34299,7 +34299,7 @@
       <c r="N504" s="4"/>
       <c r="O504" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="505">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="505">
       <c r="A505" s="4" t="n">
         <v>504</v>
       </c>
@@ -34336,7 +34336,7 @@
       <c r="N505" s="4"/>
       <c r="O505" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="506">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="506">
       <c r="A506" s="4" t="n">
         <v>505</v>
       </c>
@@ -34375,7 +34375,7 @@
       <c r="N506" s="4"/>
       <c r="O506" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="507">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="507">
       <c r="A507" s="4" t="n">
         <v>506</v>
       </c>
@@ -34410,7 +34410,7 @@
       <c r="N507" s="4"/>
       <c r="O507" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="508">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="508">
       <c r="A508" s="4" t="n">
         <v>507</v>
       </c>
@@ -34445,7 +34445,7 @@
       <c r="N508" s="4"/>
       <c r="O508" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="509">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="509">
       <c r="A509" s="4" t="n">
         <v>508</v>
       </c>
@@ -34482,7 +34482,7 @@
       <c r="N509" s="4"/>
       <c r="O509" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="510">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="510">
       <c r="A510" s="4" t="n">
         <v>509</v>
       </c>
@@ -34519,7 +34519,7 @@
       <c r="N510" s="4"/>
       <c r="O510" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="511">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="511">
       <c r="A511" s="4" t="n">
         <v>510</v>
       </c>
@@ -34552,7 +34552,7 @@
       <c r="N511" s="4"/>
       <c r="O511" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="512">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="512">
       <c r="A512" s="4" t="n">
         <v>511</v>
       </c>
@@ -34593,7 +34593,7 @@
       <c r="N512" s="4"/>
       <c r="O512" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="513">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="513">
       <c r="A513" s="4" t="n">
         <v>512</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="514">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="514">
       <c r="A514" s="4" t="n">
         <v>513</v>
       </c>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="O514" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="515">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="515">
       <c r="A515" s="4" t="n">
         <v>514</v>
       </c>
@@ -34710,7 +34710,7 @@
       <c r="N515" s="4"/>
       <c r="O515" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="516">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="516">
       <c r="A516" s="4" t="n">
         <v>515</v>
       </c>
@@ -34751,7 +34751,7 @@
       <c r="N516" s="4"/>
       <c r="O516" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="517">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="517">
       <c r="A517" s="4" t="n">
         <v>516</v>
       </c>
@@ -34788,7 +34788,7 @@
       <c r="N517" s="4"/>
       <c r="O517" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="518">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="518">
       <c r="A518" s="4" t="n">
         <v>517</v>
       </c>
@@ -34821,7 +34821,7 @@
       <c r="N518" s="4"/>
       <c r="O518" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="519">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="519">
       <c r="A519" s="4" t="n">
         <v>518</v>
       </c>
@@ -34862,7 +34862,7 @@
       </c>
       <c r="O519" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="520">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="520">
       <c r="A520" s="4" t="n">
         <v>519</v>
       </c>
@@ -34899,7 +34899,7 @@
       <c r="N520" s="4"/>
       <c r="O520" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="521">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="521">
       <c r="A521" s="4" t="n">
         <v>520</v>
       </c>
@@ -34934,7 +34934,7 @@
       </c>
       <c r="O521" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="522">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="522">
       <c r="A522" s="4" t="n">
         <v>521</v>
       </c>
@@ -34971,7 +34971,7 @@
       <c r="N522" s="4"/>
       <c r="O522" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="523">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="523">
       <c r="A523" s="4" t="n">
         <v>522</v>
       </c>
@@ -35006,7 +35006,7 @@
       <c r="N523" s="4"/>
       <c r="O523" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="524">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="524">
       <c r="A524" s="4" t="n">
         <v>523</v>
       </c>
@@ -35041,7 +35041,7 @@
       <c r="N524" s="4"/>
       <c r="O524" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="525">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="525">
       <c r="A525" s="4" t="n">
         <v>524</v>
       </c>
@@ -35078,7 +35078,7 @@
       <c r="N525" s="4"/>
       <c r="O525" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="526">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="526">
       <c r="A526" s="4" t="n">
         <v>525</v>
       </c>
@@ -35115,7 +35115,7 @@
       <c r="N526" s="4"/>
       <c r="O526" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="527">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="527">
       <c r="A527" s="4" t="n">
         <v>526</v>
       </c>
@@ -35154,7 +35154,7 @@
       <c r="N527" s="4"/>
       <c r="O527" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="528">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="528">
       <c r="A528" s="4" t="n">
         <v>527</v>
       </c>
@@ -35189,7 +35189,7 @@
       <c r="N528" s="4"/>
       <c r="O528" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="529">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="529">
       <c r="A529" s="4" t="n">
         <v>528</v>
       </c>
@@ -35224,7 +35224,7 @@
       <c r="N529" s="4"/>
       <c r="O529" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="530">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="530">
       <c r="A530" s="4" t="n">
         <v>529</v>
       </c>
@@ -35259,7 +35259,7 @@
       <c r="N530" s="4"/>
       <c r="O530" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="531">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="531">
       <c r="A531" s="4" t="n">
         <v>530</v>
       </c>
@@ -35302,7 +35302,7 @@
       </c>
       <c r="O531" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="532">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="532">
       <c r="A532" s="4" t="n">
         <v>531</v>
       </c>
@@ -35341,7 +35341,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="533">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="533">
       <c r="A533" s="4" t="n">
         <v>532</v>
       </c>
@@ -35376,7 +35376,7 @@
       <c r="N533" s="4"/>
       <c r="O533" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="534">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="534">
       <c r="A534" s="4" t="n">
         <v>533</v>
       </c>
@@ -35413,7 +35413,7 @@
       <c r="N534" s="4"/>
       <c r="O534" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="535">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="535">
       <c r="A535" s="4" t="n">
         <v>534</v>
       </c>
@@ -35448,7 +35448,7 @@
       <c r="N535" s="4"/>
       <c r="O535" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="536">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="536">
       <c r="A536" s="4" t="n">
         <v>535</v>
       </c>
@@ -35481,7 +35481,7 @@
       <c r="N536" s="4"/>
       <c r="O536" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="537">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="537">
       <c r="A537" s="4" t="n">
         <v>536</v>
       </c>
@@ -35520,7 +35520,7 @@
       <c r="N537" s="4"/>
       <c r="O537" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="538">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="538">
       <c r="A538" s="4" t="n">
         <v>537</v>
       </c>
@@ -35559,7 +35559,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="539">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="539">
       <c r="A539" s="4" t="n">
         <v>538</v>
       </c>
@@ -35594,7 +35594,7 @@
       <c r="N539" s="4"/>
       <c r="O539" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="540">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="540">
       <c r="A540" s="4" t="n">
         <v>539</v>
       </c>
@@ -35631,7 +35631,7 @@
       <c r="N540" s="4"/>
       <c r="O540" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="541">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="541">
       <c r="A541" s="4" t="n">
         <v>540</v>
       </c>
@@ -35674,7 +35674,7 @@
       </c>
       <c r="O541" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="542">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="542">
       <c r="A542" s="4" t="n">
         <v>541</v>
       </c>
@@ -35709,7 +35709,7 @@
       <c r="N542" s="4"/>
       <c r="O542" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="543">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="543">
       <c r="A543" s="4" t="n">
         <v>542</v>
       </c>
@@ -35750,7 +35750,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="544">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="544">
       <c r="A544" s="4" t="n">
         <v>543</v>
       </c>
@@ -35783,7 +35783,7 @@
       <c r="N544" s="4"/>
       <c r="O544" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="545">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="545">
       <c r="A545" s="4" t="n">
         <v>544</v>
       </c>
@@ -35814,7 +35814,7 @@
       <c r="N545" s="4"/>
       <c r="O545" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="546">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="546">
       <c r="A546" s="4" t="n">
         <v>545</v>
       </c>
@@ -35849,7 +35849,7 @@
       <c r="N546" s="4"/>
       <c r="O546" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="547">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="547">
       <c r="A547" s="4" t="n">
         <v>546</v>
       </c>
@@ -35884,7 +35884,7 @@
       </c>
       <c r="O547" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="548">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="548">
       <c r="A548" s="4" t="n">
         <v>547</v>
       </c>
@@ -35917,7 +35917,7 @@
       <c r="N548" s="4"/>
       <c r="O548" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="549">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="549">
       <c r="A549" s="4" t="n">
         <v>548</v>
       </c>
@@ -35954,7 +35954,7 @@
       </c>
       <c r="O549" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="550">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="550">
       <c r="A550" s="4" t="n">
         <v>549</v>
       </c>
@@ -35993,7 +35993,7 @@
       <c r="N550" s="4"/>
       <c r="O550" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="551">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="551">
       <c r="A551" s="4" t="n">
         <v>550</v>
       </c>
@@ -36032,7 +36032,7 @@
       <c r="N551" s="4"/>
       <c r="O551" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="552">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="552">
       <c r="A552" s="4" t="n">
         <v>551</v>
       </c>
@@ -36077,7 +36077,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="553">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="553">
       <c r="A553" s="4" t="n">
         <v>552</v>
       </c>
@@ -36118,7 +36118,7 @@
       </c>
       <c r="O553" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="554">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="554">
       <c r="A554" s="4" t="n">
         <v>553</v>
       </c>
@@ -36149,7 +36149,7 @@
       <c r="N554" s="4"/>
       <c r="O554" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="555">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="555">
       <c r="A555" s="4" t="n">
         <v>554</v>
       </c>
@@ -36186,7 +36186,7 @@
       </c>
       <c r="O555" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="556">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="556">
       <c r="A556" s="4" t="n">
         <v>555</v>
       </c>
@@ -36223,7 +36223,7 @@
       <c r="N556" s="4"/>
       <c r="O556" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="557">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="557">
       <c r="A557" s="4" t="n">
         <v>556</v>
       </c>
@@ -36256,7 +36256,7 @@
       <c r="N557" s="4"/>
       <c r="O557" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="558">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="558">
       <c r="A558" s="4" t="n">
         <v>557</v>
       </c>
@@ -36293,7 +36293,7 @@
       <c r="N558" s="4"/>
       <c r="O558" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="559">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="559">
       <c r="A559" s="4" t="n">
         <v>558</v>
       </c>
@@ -36328,7 +36328,7 @@
       <c r="N559" s="4"/>
       <c r="O559" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="560">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="560">
       <c r="A560" s="4" t="n">
         <v>559</v>
       </c>
@@ -36363,7 +36363,7 @@
       <c r="N560" s="4"/>
       <c r="O560" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="561">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="561">
       <c r="A561" s="4" t="n">
         <v>560</v>
       </c>
@@ -36400,7 +36400,7 @@
       <c r="N561" s="4"/>
       <c r="O561" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="562">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="562">
       <c r="A562" s="4" t="n">
         <v>561</v>
       </c>
@@ -36445,7 +36445,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="563">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="563">
       <c r="A563" s="4" t="n">
         <v>562</v>
       </c>
@@ -36478,7 +36478,7 @@
       <c r="N563" s="4"/>
       <c r="O563" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="564">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="564">
       <c r="A564" s="4" t="n">
         <v>563</v>
       </c>
@@ -36511,7 +36511,7 @@
       <c r="N564" s="4"/>
       <c r="O564" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="565">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="565">
       <c r="A565" s="4" t="n">
         <v>564</v>
       </c>
@@ -36552,7 +36552,7 @@
       <c r="N565" s="4"/>
       <c r="O565" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="566">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="566">
       <c r="A566" s="4" t="n">
         <v>565</v>
       </c>
@@ -36589,7 +36589,7 @@
       <c r="N566" s="4"/>
       <c r="O566" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="567">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="567">
       <c r="A567" s="4" t="n">
         <v>566</v>
       </c>
@@ -36632,7 +36632,7 @@
       <c r="N567" s="4"/>
       <c r="O567" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="568">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="568">
       <c r="A568" s="4" t="n">
         <v>567</v>
       </c>
@@ -36673,7 +36673,7 @@
       <c r="N568" s="4"/>
       <c r="O568" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="569">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="569">
       <c r="A569" s="4" t="n">
         <v>568</v>
       </c>
@@ -36714,7 +36714,7 @@
       </c>
       <c r="O569" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="570">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="570">
       <c r="A570" s="4" t="n">
         <v>569</v>
       </c>
@@ -36753,7 +36753,7 @@
       </c>
       <c r="O570" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="571">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="571">
       <c r="A571" s="4" t="n">
         <v>570</v>
       </c>
@@ -36792,7 +36792,7 @@
       <c r="N571" s="4"/>
       <c r="O571" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="572">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="572">
       <c r="A572" s="4" t="n">
         <v>571</v>
       </c>
@@ -36827,7 +36827,7 @@
       <c r="N572" s="4"/>
       <c r="O572" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="573">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="573">
       <c r="A573" s="4" t="n">
         <v>572</v>
       </c>
@@ -36862,7 +36862,7 @@
       <c r="N573" s="4"/>
       <c r="O573" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="574">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="574">
       <c r="A574" s="4" t="n">
         <v>573</v>
       </c>
@@ -36903,7 +36903,7 @@
       </c>
       <c r="O574" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="575">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="575">
       <c r="A575" s="4" t="n">
         <v>574</v>
       </c>
@@ -36940,7 +36940,7 @@
       <c r="N575" s="4"/>
       <c r="O575" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="576">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="576">
       <c r="A576" s="4" t="n">
         <v>575</v>
       </c>
@@ -36973,7 +36973,7 @@
       <c r="N576" s="4"/>
       <c r="O576" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="577">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="577">
       <c r="A577" s="4" t="n">
         <v>576</v>
       </c>
@@ -37010,7 +37010,7 @@
       <c r="N577" s="4"/>
       <c r="O577" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="578">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="578">
       <c r="A578" s="4" t="n">
         <v>577</v>
       </c>
@@ -37045,7 +37045,7 @@
       <c r="N578" s="4"/>
       <c r="O578" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="579">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="579">
       <c r="A579" s="4" t="n">
         <v>578</v>
       </c>
@@ -37082,7 +37082,7 @@
       <c r="N579" s="4"/>
       <c r="O579" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="580">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="580">
       <c r="A580" s="4" t="n">
         <v>579</v>
       </c>
@@ -37123,7 +37123,7 @@
       </c>
       <c r="O580" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="581">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="581">
       <c r="A581" s="4" t="n">
         <v>580</v>
       </c>
@@ -37160,7 +37160,7 @@
       <c r="N581" s="4"/>
       <c r="O581" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="582">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="582">
       <c r="A582" s="4" t="n">
         <v>581</v>
       </c>
@@ -37193,7 +37193,7 @@
       <c r="N582" s="4"/>
       <c r="O582" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="583">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="583">
       <c r="A583" s="4" t="n">
         <v>582</v>
       </c>
@@ -37236,7 +37236,7 @@
       </c>
       <c r="O583" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="584">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="584">
       <c r="A584" s="4" t="n">
         <v>583</v>
       </c>
@@ -37273,7 +37273,7 @@
       <c r="N584" s="4"/>
       <c r="O584" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="585">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="585">
       <c r="A585" s="4" t="n">
         <v>584</v>
       </c>
@@ -37310,7 +37310,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="586">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="586">
       <c r="A586" s="4" t="n">
         <v>585</v>
       </c>
@@ -37353,7 +37353,7 @@
       </c>
       <c r="O586" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="587">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="587">
       <c r="A587" s="4" t="n">
         <v>586</v>
       </c>
@@ -37390,7 +37390,7 @@
       </c>
       <c r="O587" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="588">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="588">
       <c r="A588" s="4" t="n">
         <v>587</v>
       </c>
@@ -37425,7 +37425,7 @@
       <c r="N588" s="4"/>
       <c r="O588" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="589">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="589">
       <c r="A589" s="4" t="n">
         <v>588</v>
       </c>
@@ -37468,7 +37468,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="590">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="590">
       <c r="A590" s="4" t="n">
         <v>589</v>
       </c>
@@ -37501,7 +37501,7 @@
       <c r="N590" s="4"/>
       <c r="O590" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="591">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="591">
       <c r="A591" s="4" t="n">
         <v>590</v>
       </c>
@@ -37538,7 +37538,7 @@
       <c r="N591" s="4"/>
       <c r="O591" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="592">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="592">
       <c r="A592" s="4" t="n">
         <v>591</v>
       </c>
@@ -37575,7 +37575,7 @@
       <c r="N592" s="4"/>
       <c r="O592" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="593">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="593">
       <c r="A593" s="4" t="n">
         <v>592</v>
       </c>
@@ -37612,7 +37612,7 @@
       </c>
       <c r="O593" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="594">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="594">
       <c r="A594" s="4" t="n">
         <v>593</v>
       </c>
@@ -37647,7 +37647,7 @@
       <c r="N594" s="4"/>
       <c r="O594" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="595">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="595">
       <c r="A595" s="4" t="n">
         <v>594</v>
       </c>
@@ -37684,7 +37684,7 @@
       <c r="N595" s="4"/>
       <c r="O595" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="596">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="596">
       <c r="A596" s="4" t="n">
         <v>595</v>
       </c>
@@ -37719,7 +37719,7 @@
       <c r="N596" s="4"/>
       <c r="O596" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="597">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="597">
       <c r="A597" s="4" t="n">
         <v>596</v>
       </c>
@@ -37754,7 +37754,7 @@
       <c r="N597" s="4"/>
       <c r="O597" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="598">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="598">
       <c r="A598" s="4" t="n">
         <v>597</v>
       </c>
@@ -37789,7 +37789,7 @@
       </c>
       <c r="O598" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="599">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="599">
       <c r="A599" s="4" t="n">
         <v>598</v>
       </c>
@@ -37828,7 +37828,7 @@
       </c>
       <c r="O599" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="600">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="600">
       <c r="A600" s="4" t="n">
         <v>599</v>
       </c>
@@ -37869,7 +37869,7 @@
       </c>
       <c r="O600" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="601">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="601">
       <c r="A601" s="4" t="n">
         <v>600</v>
       </c>
@@ -37902,7 +37902,7 @@
       <c r="N601" s="4"/>
       <c r="O601" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="602">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="602">
       <c r="A602" s="4" t="n">
         <v>601</v>
       </c>
@@ -37939,7 +37939,7 @@
       <c r="N602" s="4"/>
       <c r="O602" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="603">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="603">
       <c r="A603" s="4" t="n">
         <v>602</v>
       </c>
@@ -37976,7 +37976,7 @@
       </c>
       <c r="O603" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="604">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="604">
       <c r="A604" s="4" t="n">
         <v>603</v>
       </c>
@@ -38011,7 +38011,7 @@
       <c r="N604" s="4"/>
       <c r="O604" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="605">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="605">
       <c r="A605" s="4" t="n">
         <v>604</v>
       </c>
@@ -38050,7 +38050,7 @@
       <c r="N605" s="4"/>
       <c r="O605" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="606">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="606">
       <c r="A606" s="4" t="n">
         <v>605</v>
       </c>
@@ -38085,7 +38085,7 @@
       <c r="N606" s="4"/>
       <c r="O606" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="607">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="607">
       <c r="A607" s="4" t="n">
         <v>606</v>
       </c>
@@ -38122,7 +38122,7 @@
       </c>
       <c r="O607" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="608">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="608">
       <c r="A608" s="4" t="n">
         <v>607</v>
       </c>
@@ -38157,7 +38157,7 @@
       <c r="N608" s="4"/>
       <c r="O608" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="609">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="609">
       <c r="A609" s="4" t="n">
         <v>608</v>
       </c>
@@ -38194,7 +38194,7 @@
       </c>
       <c r="O609" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="610">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="610">
       <c r="A610" s="4" t="n">
         <v>609</v>
       </c>
@@ -38233,7 +38233,7 @@
       <c r="N610" s="4"/>
       <c r="O610" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="611">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="611">
       <c r="A611" s="4" t="n">
         <v>610</v>
       </c>
@@ -38272,7 +38272,7 @@
       <c r="N611" s="4"/>
       <c r="O611" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="612">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="612">
       <c r="A612" s="4" t="n">
         <v>611</v>
       </c>
@@ -38307,7 +38307,7 @@
       <c r="N612" s="4"/>
       <c r="O612" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="613">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="613">
       <c r="A613" s="4" t="n">
         <v>612</v>
       </c>
@@ -38342,7 +38342,7 @@
       <c r="N613" s="4"/>
       <c r="O613" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="614">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="614">
       <c r="A614" s="4" t="n">
         <v>613</v>
       </c>
@@ -38375,7 +38375,7 @@
       <c r="N614" s="4"/>
       <c r="O614" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="615">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="615">
       <c r="A615" s="4" t="n">
         <v>614</v>
       </c>
@@ -38412,7 +38412,7 @@
       <c r="N615" s="4"/>
       <c r="O615" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="616">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="616">
       <c r="A616" s="4" t="n">
         <v>615</v>
       </c>
@@ -38447,7 +38447,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="617">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="617">
       <c r="A617" s="4" t="n">
         <v>616</v>
       </c>
@@ -38484,7 +38484,7 @@
       <c r="N617" s="4"/>
       <c r="O617" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="618">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="618">
       <c r="A618" s="4" t="n">
         <v>617</v>
       </c>
@@ -38521,7 +38521,7 @@
       <c r="N618" s="4"/>
       <c r="O618" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="619">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="619">
       <c r="A619" s="4" t="n">
         <v>618</v>
       </c>
@@ -38556,7 +38556,7 @@
       <c r="N619" s="4"/>
       <c r="O619" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="620">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="620">
       <c r="A620" s="4" t="n">
         <v>619</v>
       </c>
@@ -38591,7 +38591,7 @@
       <c r="N620" s="4"/>
       <c r="O620" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="621">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="621">
       <c r="A621" s="4" t="n">
         <v>620</v>
       </c>
@@ -38630,7 +38630,7 @@
       <c r="N621" s="4"/>
       <c r="O621" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="622">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="622">
       <c r="A622" s="4" t="n">
         <v>621</v>
       </c>
@@ -38661,7 +38661,7 @@
       <c r="N622" s="4"/>
       <c r="O622" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="623">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="623">
       <c r="A623" s="4" t="n">
         <v>622</v>
       </c>
@@ -38698,7 +38698,7 @@
       </c>
       <c r="O623" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="624">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="624">
       <c r="A624" s="4" t="n">
         <v>623</v>
       </c>
@@ -38731,7 +38731,7 @@
       <c r="N624" s="4"/>
       <c r="O624" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="625">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="625">
       <c r="A625" s="4" t="n">
         <v>624</v>
       </c>
@@ -38778,7 +38778,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="626">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="626">
       <c r="A626" s="4" t="n">
         <v>625</v>
       </c>
@@ -38813,7 +38813,7 @@
       <c r="N626" s="4"/>
       <c r="O626" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="627">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="627">
       <c r="A627" s="4" t="n">
         <v>626</v>
       </c>
@@ -38856,7 +38856,7 @@
       </c>
       <c r="O627" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="628">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="628">
       <c r="A628" s="4" t="n">
         <v>627</v>
       </c>
@@ -38891,7 +38891,7 @@
       <c r="N628" s="4"/>
       <c r="O628" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="629">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="629">
       <c r="A629" s="4" t="n">
         <v>628</v>
       </c>
@@ -38934,7 +38934,7 @@
       </c>
       <c r="O629" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="630">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="630">
       <c r="A630" s="4" t="n">
         <v>629</v>
       </c>
@@ -38969,7 +38969,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="631">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="631">
       <c r="A631" s="4" t="n">
         <v>630</v>
       </c>
@@ -39006,7 +39006,7 @@
       <c r="N631" s="4"/>
       <c r="O631" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="632">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="632">
       <c r="A632" s="4" t="n">
         <v>631</v>
       </c>
@@ -39043,7 +39043,7 @@
       <c r="N632" s="4"/>
       <c r="O632" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="633">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="633">
       <c r="A633" s="4" t="n">
         <v>632</v>
       </c>
@@ -39080,7 +39080,7 @@
       <c r="N633" s="4"/>
       <c r="O633" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="634">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="634">
       <c r="A634" s="4" t="n">
         <v>633</v>
       </c>
@@ -39119,7 +39119,7 @@
       </c>
       <c r="O634" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="635">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="635">
       <c r="A635" s="4" t="n">
         <v>634</v>
       </c>
@@ -39154,7 +39154,7 @@
       </c>
       <c r="O635" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="636">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="636">
       <c r="A636" s="4" t="n">
         <v>635</v>
       </c>
@@ -39189,7 +39189,7 @@
       <c r="N636" s="4"/>
       <c r="O636" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="637">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="637">
       <c r="A637" s="4" t="n">
         <v>636</v>
       </c>
@@ -39228,7 +39228,7 @@
       <c r="N637" s="4"/>
       <c r="O637" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="638">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="638">
       <c r="A638" s="4" t="n">
         <v>637</v>
       </c>
@@ -39265,7 +39265,7 @@
       <c r="N638" s="4"/>
       <c r="O638" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="639">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="639">
       <c r="A639" s="4" t="n">
         <v>638</v>
       </c>
@@ -39302,7 +39302,7 @@
       <c r="N639" s="4"/>
       <c r="O639" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="640">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="640">
       <c r="A640" s="4" t="n">
         <v>639</v>
       </c>
@@ -39337,7 +39337,7 @@
       <c r="N640" s="4"/>
       <c r="O640" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="641">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="641">
       <c r="A641" s="4" t="n">
         <v>640</v>
       </c>
@@ -39378,7 +39378,7 @@
       </c>
       <c r="O641" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="642">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="642">
       <c r="A642" s="4" t="n">
         <v>641</v>
       </c>
@@ -39415,7 +39415,7 @@
       <c r="N642" s="4"/>
       <c r="O642" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="643">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="643">
       <c r="A643" s="4" t="n">
         <v>642</v>
       </c>
@@ -39452,7 +39452,7 @@
       <c r="N643" s="4"/>
       <c r="O643" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="644">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="644">
       <c r="A644" s="4" t="n">
         <v>643</v>
       </c>
@@ -39489,7 +39489,7 @@
       <c r="N644" s="4"/>
       <c r="O644" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="645">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="645">
       <c r="A645" s="4" t="n">
         <v>644</v>
       </c>
@@ -39573,7 +39573,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="647">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="647">
       <c r="A647" s="4" t="n">
         <v>646</v>
       </c>
@@ -39610,7 +39610,7 @@
       <c r="N647" s="4"/>
       <c r="O647" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="648">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="648">
       <c r="A648" s="4" t="n">
         <v>647</v>
       </c>
@@ -39643,7 +39643,7 @@
       <c r="N648" s="4"/>
       <c r="O648" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="649">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="649">
       <c r="A649" s="4" t="n">
         <v>648</v>
       </c>
@@ -39678,7 +39678,7 @@
       <c r="N649" s="4"/>
       <c r="O649" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="650">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="650">
       <c r="A650" s="4" t="n">
         <v>649</v>
       </c>
@@ -39719,7 +39719,7 @@
       </c>
       <c r="O650" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="651">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="651">
       <c r="A651" s="4" t="n">
         <v>650</v>
       </c>
@@ -39756,7 +39756,7 @@
       <c r="N651" s="4"/>
       <c r="O651" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="652">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="652">
       <c r="A652" s="4" t="n">
         <v>651</v>
       </c>
@@ -39795,7 +39795,7 @@
       <c r="N652" s="4"/>
       <c r="O652" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="653">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="653">
       <c r="A653" s="4" t="n">
         <v>652</v>
       </c>
@@ -39840,7 +39840,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="654">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="654">
       <c r="A654" s="4" t="n">
         <v>653</v>
       </c>
@@ -39873,7 +39873,7 @@
       <c r="N654" s="4"/>
       <c r="O654" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="655">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="655">
       <c r="A655" s="4" t="n">
         <v>654</v>
       </c>
@@ -39908,7 +39908,7 @@
       <c r="N655" s="4"/>
       <c r="O655" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="656">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="656">
       <c r="A656" s="4" t="n">
         <v>655</v>
       </c>
@@ -39947,7 +39947,7 @@
       <c r="N656" s="4"/>
       <c r="O656" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="657">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="657">
       <c r="A657" s="4" t="n">
         <v>656</v>
       </c>
@@ -39984,7 +39984,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="658">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="658">
       <c r="A658" s="4" t="n">
         <v>657</v>
       </c>
@@ -40019,7 +40019,7 @@
       <c r="N658" s="4"/>
       <c r="O658" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="659">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="659">
       <c r="A659" s="4" t="n">
         <v>658</v>
       </c>
@@ -40054,7 +40054,7 @@
       <c r="N659" s="4"/>
       <c r="O659" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="660">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="660">
       <c r="A660" s="4" t="n">
         <v>659</v>
       </c>
@@ -40091,7 +40091,7 @@
       <c r="N660" s="4"/>
       <c r="O660" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="661">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="661">
       <c r="A661" s="4" t="n">
         <v>660</v>
       </c>
@@ -40126,7 +40126,7 @@
       <c r="N661" s="4"/>
       <c r="O661" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="662">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="662">
       <c r="A662" s="4" t="n">
         <v>661</v>
       </c>
@@ -40163,7 +40163,7 @@
       <c r="N662" s="4"/>
       <c r="O662" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="663">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="663">
       <c r="A663" s="4" t="n">
         <v>662</v>
       </c>
@@ -40204,7 +40204,7 @@
       <c r="N663" s="4"/>
       <c r="O663" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="664">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="664">
       <c r="A664" s="4" t="n">
         <v>663</v>
       </c>
@@ -40241,7 +40241,7 @@
       <c r="N664" s="4"/>
       <c r="O664" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="665">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="665">
       <c r="A665" s="4" t="n">
         <v>664</v>
       </c>
@@ -40278,7 +40278,7 @@
       <c r="N665" s="4"/>
       <c r="O665" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="666">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="666">
       <c r="A666" s="4" t="n">
         <v>665</v>
       </c>
@@ -40317,7 +40317,7 @@
       <c r="N666" s="4"/>
       <c r="O666" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="667">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="667">
       <c r="A667" s="4" t="n">
         <v>666</v>
       </c>
@@ -40352,7 +40352,7 @@
       <c r="N667" s="4"/>
       <c r="O667" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="668">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="668">
       <c r="A668" s="4" t="n">
         <v>667</v>
       </c>
@@ -40389,7 +40389,7 @@
       <c r="N668" s="4"/>
       <c r="O668" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="669">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="669">
       <c r="A669" s="4" t="n">
         <v>668</v>
       </c>
@@ -40426,7 +40426,7 @@
       <c r="N669" s="4"/>
       <c r="O669" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="670">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="670">
       <c r="A670" s="4" t="n">
         <v>669</v>
       </c>
@@ -40459,7 +40459,7 @@
       <c r="N670" s="4"/>
       <c r="O670" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="671">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="671">
       <c r="A671" s="4" t="n">
         <v>670</v>
       </c>
@@ -40494,7 +40494,7 @@
       <c r="N671" s="4"/>
       <c r="O671" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="672">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="672">
       <c r="A672" s="4" t="n">
         <v>671</v>
       </c>
@@ -40531,7 +40531,7 @@
       <c r="N672" s="4"/>
       <c r="O672" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="673">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="673">
       <c r="A673" s="4" t="n">
         <v>672</v>
       </c>
@@ -40564,7 +40564,7 @@
       <c r="N673" s="4"/>
       <c r="O673" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="674">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="674">
       <c r="A674" s="4" t="n">
         <v>673</v>
       </c>
@@ -40603,7 +40603,7 @@
       <c r="N674" s="4"/>
       <c r="O674" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="675">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="675">
       <c r="A675" s="4" t="n">
         <v>674</v>
       </c>
@@ -40638,7 +40638,7 @@
       <c r="N675" s="4"/>
       <c r="O675" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="676">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="676">
       <c r="A676" s="4" t="n">
         <v>675</v>
       </c>
@@ -40673,7 +40673,7 @@
       <c r="N676" s="4"/>
       <c r="O676" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="677">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="677">
       <c r="A677" s="4" t="n">
         <v>676</v>
       </c>
@@ -40710,7 +40710,7 @@
       <c r="N677" s="4"/>
       <c r="O677" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="678">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="678">
       <c r="A678" s="4" t="n">
         <v>677</v>
       </c>
@@ -40745,7 +40745,7 @@
       <c r="N678" s="4"/>
       <c r="O678" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="679">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="679">
       <c r="A679" s="4" t="n">
         <v>678</v>
       </c>
@@ -40782,7 +40782,7 @@
       <c r="N679" s="4"/>
       <c r="O679" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="680">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="680">
       <c r="A680" s="4" t="n">
         <v>679</v>
       </c>
@@ -40817,7 +40817,7 @@
       <c r="N680" s="4"/>
       <c r="O680" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="681">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="681">
       <c r="A681" s="4" t="n">
         <v>680</v>
       </c>
@@ -40854,7 +40854,7 @@
       <c r="N681" s="4"/>
       <c r="O681" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="682">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="682">
       <c r="A682" s="4" t="n">
         <v>681</v>
       </c>
@@ -40895,7 +40895,7 @@
       </c>
       <c r="O682" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="683">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="683">
       <c r="A683" s="4" t="n">
         <v>682</v>
       </c>
@@ -40932,7 +40932,7 @@
       <c r="N683" s="4"/>
       <c r="O683" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="684">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="684">
       <c r="A684" s="4" t="n">
         <v>683</v>
       </c>
@@ -40969,7 +40969,7 @@
       <c r="N684" s="4"/>
       <c r="O684" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="685">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="685">
       <c r="A685" s="4" t="n">
         <v>684</v>
       </c>
@@ -41010,7 +41010,7 @@
       <c r="N685" s="4"/>
       <c r="O685" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="686">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="686">
       <c r="A686" s="4" t="n">
         <v>685</v>
       </c>
@@ -41045,7 +41045,7 @@
       <c r="N686" s="4"/>
       <c r="O686" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="687">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="687">
       <c r="A687" s="4" t="n">
         <v>686</v>
       </c>
@@ -41080,7 +41080,7 @@
       </c>
       <c r="O687" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="688">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="688">
       <c r="A688" s="4" t="n">
         <v>687</v>
       </c>
@@ -41115,7 +41115,7 @@
       <c r="N688" s="4"/>
       <c r="O688" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="689">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="689">
       <c r="A689" s="4" t="n">
         <v>688</v>
       </c>
@@ -41152,7 +41152,7 @@
       <c r="N689" s="4"/>
       <c r="O689" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="690">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="690">
       <c r="A690" s="4" t="n">
         <v>689</v>
       </c>
@@ -41189,7 +41189,7 @@
       <c r="N690" s="4"/>
       <c r="O690" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="691">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="691">
       <c r="A691" s="4" t="n">
         <v>690</v>
       </c>
@@ -41234,7 +41234,7 @@
         <v>4291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="692">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="692">
       <c r="A692" s="4" t="n">
         <v>691</v>
       </c>
@@ -41269,7 +41269,7 @@
       <c r="N692" s="4"/>
       <c r="O692" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="693">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="693">
       <c r="A693" s="4" t="n">
         <v>692</v>
       </c>
@@ -41304,7 +41304,7 @@
       <c r="N693" s="4"/>
       <c r="O693" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="694">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="694">
       <c r="A694" s="4" t="n">
         <v>693</v>
       </c>
@@ -41339,7 +41339,7 @@
       <c r="N694" s="4"/>
       <c r="O694" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="695">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="695">
       <c r="A695" s="4" t="n">
         <v>694</v>
       </c>
@@ -41374,7 +41374,7 @@
       <c r="N695" s="4"/>
       <c r="O695" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="696">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="696">
       <c r="A696" s="4" t="n">
         <v>695</v>
       </c>
@@ -41407,7 +41407,7 @@
       <c r="N696" s="4"/>
       <c r="O696" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="697">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="697">
       <c r="A697" s="4" t="n">
         <v>696</v>
       </c>
@@ -41442,7 +41442,7 @@
       <c r="N697" s="4"/>
       <c r="O697" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="698">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="698">
       <c r="A698" s="4" t="n">
         <v>697</v>
       </c>
@@ -41479,7 +41479,7 @@
       <c r="N698" s="4"/>
       <c r="O698" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="699">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="699">
       <c r="A699" s="4" t="n">
         <v>698</v>
       </c>
@@ -41514,7 +41514,7 @@
       <c r="N699" s="4"/>
       <c r="O699" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="700">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="700">
       <c r="A700" s="4" t="n">
         <v>699</v>
       </c>
@@ -41549,7 +41549,7 @@
       <c r="N700" s="4"/>
       <c r="O700" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="701">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="701">
       <c r="A701" s="4" t="n">
         <v>700</v>
       </c>
@@ -41592,7 +41592,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="702">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="702">
       <c r="A702" s="4" t="n">
         <v>701</v>
       </c>
@@ -41627,7 +41627,7 @@
       <c r="N702" s="4"/>
       <c r="O702" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="703">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="703">
       <c r="A703" s="4" t="n">
         <v>702</v>
       </c>
@@ -41662,7 +41662,7 @@
       <c r="N703" s="4"/>
       <c r="O703" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="704">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="704">
       <c r="A704" s="4" t="n">
         <v>703</v>
       </c>
@@ -41701,7 +41701,7 @@
       </c>
       <c r="O704" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="705">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="705">
       <c r="A705" s="4" t="n">
         <v>704</v>
       </c>
@@ -41734,7 +41734,7 @@
       <c r="N705" s="4"/>
       <c r="O705" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="706">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="706">
       <c r="A706" s="4" t="n">
         <v>705</v>
       </c>
@@ -41767,7 +41767,7 @@
       <c r="N706" s="4"/>
       <c r="O706" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="707">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="707">
       <c r="A707" s="4" t="n">
         <v>706</v>
       </c>
@@ -41802,7 +41802,7 @@
       <c r="N707" s="4"/>
       <c r="O707" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="708">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="708">
       <c r="A708" s="4" t="n">
         <v>707</v>
       </c>
@@ -41837,7 +41837,7 @@
       <c r="N708" s="4"/>
       <c r="O708" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="709">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="709">
       <c r="A709" s="4" t="n">
         <v>708</v>
       </c>
@@ -41876,7 +41876,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="710">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="710">
       <c r="A710" s="4" t="n">
         <v>709</v>
       </c>
@@ -41923,7 +41923,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="711">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="711">
       <c r="A711" s="4" t="n">
         <v>710</v>
       </c>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="O711" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="712">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="712">
       <c r="A712" s="4" t="n">
         <v>711</v>
       </c>
@@ -42007,7 +42007,7 @@
       </c>
       <c r="O712" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="713">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="713">
       <c r="A713" s="4" t="n">
         <v>712</v>
       </c>
@@ -42044,7 +42044,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="714">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="714">
       <c r="A714" s="4" t="n">
         <v>713</v>
       </c>
@@ -42079,7 +42079,7 @@
         <v>4409</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="715">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="715">
       <c r="A715" s="4" t="n">
         <v>714</v>
       </c>
@@ -42118,7 +42118,7 @@
       </c>
       <c r="O715" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="716">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="716">
       <c r="A716" s="4" t="n">
         <v>715</v>
       </c>
@@ -42155,7 +42155,7 @@
       <c r="N716" s="4"/>
       <c r="O716" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="717">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="717">
       <c r="A717" s="4" t="n">
         <v>716</v>
       </c>
@@ -42192,7 +42192,7 @@
       <c r="N717" s="4"/>
       <c r="O717" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="718">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="718">
       <c r="A718" s="4" t="n">
         <v>717</v>
       </c>
@@ -42229,7 +42229,7 @@
       <c r="N718" s="4"/>
       <c r="O718" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="719">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="719">
       <c r="A719" s="4" t="n">
         <v>718</v>
       </c>
@@ -42264,7 +42264,7 @@
       <c r="N719" s="4"/>
       <c r="O719" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="720">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="720">
       <c r="A720" s="4" t="n">
         <v>719</v>
       </c>
@@ -42301,7 +42301,7 @@
       <c r="N720" s="4"/>
       <c r="O720" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="326.1" outlineLevel="0" r="721">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="225.35" outlineLevel="0" r="721">
       <c r="A721" s="4" t="n">
         <v>720</v>
       </c>
@@ -42346,7 +42346,7 @@
         <v>4445</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="722">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="722">
       <c r="A722" s="4" t="n">
         <v>721</v>
       </c>
@@ -42383,7 +42383,7 @@
       <c r="N722" s="4"/>
       <c r="O722" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="723">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="723">
       <c r="A723" s="4" t="n">
         <v>722</v>
       </c>
@@ -42426,7 +42426,7 @@
       <c r="N723" s="4"/>
       <c r="O723" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="724">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="724">
       <c r="A724" s="4" t="n">
         <v>723</v>
       </c>
@@ -42467,7 +42467,7 @@
       </c>
       <c r="O724" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="725">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="725">
       <c r="A725" s="4" t="n">
         <v>724</v>
       </c>
@@ -42500,7 +42500,7 @@
       <c r="N725" s="4"/>
       <c r="O725" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="726">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="726">
       <c r="A726" s="4" t="n">
         <v>725</v>
       </c>
@@ -42537,7 +42537,7 @@
       <c r="N726" s="4"/>
       <c r="O726" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="727">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="727">
       <c r="A727" s="4" t="n">
         <v>726</v>
       </c>
@@ -42572,7 +42572,7 @@
       <c r="N727" s="4"/>
       <c r="O727" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="728">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="728">
       <c r="A728" s="4" t="n">
         <v>727</v>
       </c>
@@ -42607,7 +42607,7 @@
       <c r="N728" s="4"/>
       <c r="O728" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="729">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="729">
       <c r="A729" s="4" t="n">
         <v>728</v>
       </c>
@@ -42642,7 +42642,7 @@
       <c r="N729" s="4"/>
       <c r="O729" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="730">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="730">
       <c r="A730" s="4" t="n">
         <v>729</v>
       </c>
@@ -42677,7 +42677,7 @@
       <c r="N730" s="4"/>
       <c r="O730" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="731">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="731">
       <c r="A731" s="4" t="n">
         <v>730</v>
       </c>
@@ -42716,7 +42716,7 @@
       <c r="N731" s="4"/>
       <c r="O731" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="732">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="732">
       <c r="A732" s="4" t="n">
         <v>731</v>
       </c>
@@ -42751,7 +42751,7 @@
       <c r="N732" s="4"/>
       <c r="O732" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="733">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="733">
       <c r="A733" s="4" t="n">
         <v>732</v>
       </c>
@@ -42786,7 +42786,7 @@
       <c r="N733" s="4"/>
       <c r="O733" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="734">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="734">
       <c r="A734" s="4" t="n">
         <v>733</v>
       </c>
@@ -42823,7 +42823,7 @@
       <c r="N734" s="4"/>
       <c r="O734" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="735">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="735">
       <c r="A735" s="4" t="n">
         <v>734</v>
       </c>
@@ -42858,7 +42858,7 @@
       <c r="N735" s="4"/>
       <c r="O735" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="736">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="736">
       <c r="A736" s="4" t="n">
         <v>735</v>
       </c>
@@ -42889,7 +42889,7 @@
       <c r="N736" s="4"/>
       <c r="O736" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="737">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="737">
       <c r="A737" s="4" t="n">
         <v>736</v>
       </c>
@@ -42928,7 +42928,7 @@
       </c>
       <c r="O737" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="738">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="738">
       <c r="A738" s="4" t="n">
         <v>737</v>
       </c>
@@ -42971,7 +42971,7 @@
       </c>
       <c r="O738" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="739">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="739">
       <c r="A739" s="4" t="n">
         <v>738</v>
       </c>
@@ -43008,7 +43008,7 @@
       <c r="N739" s="4"/>
       <c r="O739" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="740">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="740">
       <c r="A740" s="4" t="n">
         <v>739</v>
       </c>
@@ -43041,7 +43041,7 @@
       <c r="N740" s="4"/>
       <c r="O740" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="741">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="741">
       <c r="A741" s="4" t="n">
         <v>740</v>
       </c>
@@ -43076,7 +43076,7 @@
       <c r="N741" s="4"/>
       <c r="O741" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="742">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="742">
       <c r="A742" s="4" t="n">
         <v>741</v>
       </c>
@@ -43113,7 +43113,7 @@
       </c>
       <c r="O742" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="743">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="743">
       <c r="A743" s="4" t="n">
         <v>742</v>
       </c>
@@ -43154,7 +43154,7 @@
       </c>
       <c r="O743" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="744">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="744">
       <c r="A744" s="4" t="n">
         <v>743</v>
       </c>
@@ -43193,7 +43193,7 @@
       <c r="N744" s="4"/>
       <c r="O744" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="745">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="745">
       <c r="A745" s="4" t="n">
         <v>744</v>
       </c>
@@ -43230,7 +43230,7 @@
       <c r="N745" s="4"/>
       <c r="O745" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="746">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="746">
       <c r="A746" s="4" t="n">
         <v>745</v>
       </c>
@@ -43263,7 +43263,7 @@
       <c r="N746" s="4"/>
       <c r="O746" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="747">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="747">
       <c r="A747" s="4" t="n">
         <v>746</v>
       </c>
@@ -43304,7 +43304,7 @@
       </c>
       <c r="O747" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="748">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="748">
       <c r="A748" s="4" t="n">
         <v>747</v>
       </c>
@@ -43339,7 +43339,7 @@
       <c r="N748" s="4"/>
       <c r="O748" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="749">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="749">
       <c r="A749" s="4" t="n">
         <v>748</v>
       </c>
@@ -43378,7 +43378,7 @@
       <c r="N749" s="4"/>
       <c r="O749" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="750">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="750">
       <c r="A750" s="4" t="n">
         <v>749</v>
       </c>
@@ -43415,7 +43415,7 @@
       <c r="N750" s="4"/>
       <c r="O750" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="751">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="751">
       <c r="A751" s="4" t="n">
         <v>750</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="752">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="752">
       <c r="A752" s="4" t="n">
         <v>751</v>
       </c>
@@ -43497,7 +43497,7 @@
       <c r="N752" s="4"/>
       <c r="O752" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="753">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="753">
       <c r="A753" s="4" t="n">
         <v>752</v>
       </c>
@@ -43534,7 +43534,7 @@
       <c r="N753" s="4"/>
       <c r="O753" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="754">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="754">
       <c r="A754" s="4" t="n">
         <v>753</v>
       </c>
@@ -43567,7 +43567,7 @@
       </c>
       <c r="O754" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="755">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="755">
       <c r="A755" s="4" t="n">
         <v>754</v>
       </c>
@@ -43606,7 +43606,7 @@
       <c r="N755" s="4"/>
       <c r="O755" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="756">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="756">
       <c r="A756" s="4" t="n">
         <v>755</v>
       </c>
@@ -43643,7 +43643,7 @@
       <c r="N756" s="4"/>
       <c r="O756" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="757">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="757">
       <c r="A757" s="4" t="n">
         <v>756</v>
       </c>
@@ -43680,7 +43680,7 @@
       <c r="N757" s="4"/>
       <c r="O757" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="758">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="758">
       <c r="A758" s="4" t="n">
         <v>757</v>
       </c>
@@ -43717,7 +43717,7 @@
       <c r="N758" s="4"/>
       <c r="O758" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="759">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="759">
       <c r="A759" s="4" t="n">
         <v>758</v>
       </c>
@@ -43756,7 +43756,7 @@
       <c r="N759" s="4"/>
       <c r="O759" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="760">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="760">
       <c r="A760" s="4" t="n">
         <v>759</v>
       </c>
@@ -43793,7 +43793,7 @@
       <c r="N760" s="4"/>
       <c r="O760" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="761">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="761">
       <c r="A761" s="4" t="n">
         <v>760</v>
       </c>
@@ -43830,7 +43830,7 @@
       </c>
       <c r="O761" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="762">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="762">
       <c r="A762" s="4" t="n">
         <v>761</v>
       </c>
@@ -43867,7 +43867,7 @@
       <c r="N762" s="4"/>
       <c r="O762" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="763">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="763">
       <c r="A763" s="4" t="n">
         <v>762</v>
       </c>
@@ -43904,7 +43904,7 @@
       <c r="N763" s="4"/>
       <c r="O763" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="764">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="764">
       <c r="A764" s="4" t="n">
         <v>763</v>
       </c>
@@ -43939,7 +43939,7 @@
       <c r="N764" s="4"/>
       <c r="O764" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="765">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="765">
       <c r="A765" s="4" t="n">
         <v>764</v>
       </c>
@@ -43976,7 +43976,7 @@
       <c r="N765" s="4"/>
       <c r="O765" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="766">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="766">
       <c r="A766" s="4" t="n">
         <v>765</v>
       </c>
@@ -44009,7 +44009,7 @@
       <c r="N766" s="4"/>
       <c r="O766" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="767">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="767">
       <c r="A767" s="4" t="n">
         <v>766</v>
       </c>
@@ -44044,7 +44044,7 @@
       <c r="N767" s="4"/>
       <c r="O767" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="768">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="768">
       <c r="A768" s="4" t="n">
         <v>767</v>
       </c>
@@ -44081,7 +44081,7 @@
       <c r="N768" s="4"/>
       <c r="O768" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="769">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="769">
       <c r="A769" s="4" t="n">
         <v>768</v>
       </c>
@@ -44114,7 +44114,7 @@
       <c r="N769" s="4"/>
       <c r="O769" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="770">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="770">
       <c r="A770" s="4" t="n">
         <v>769</v>
       </c>
@@ -44149,7 +44149,7 @@
       <c r="N770" s="4"/>
       <c r="O770" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="771">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="771">
       <c r="A771" s="4" t="n">
         <v>770</v>
       </c>
@@ -44186,7 +44186,7 @@
       <c r="N771" s="4"/>
       <c r="O771" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="772">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="772">
       <c r="A772" s="4" t="n">
         <v>771</v>
       </c>
@@ -44223,7 +44223,7 @@
       <c r="N772" s="4"/>
       <c r="O772" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="773">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="773">
       <c r="A773" s="4" t="n">
         <v>772</v>
       </c>
@@ -44260,7 +44260,7 @@
       <c r="N773" s="4"/>
       <c r="O773" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="774">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="774">
       <c r="A774" s="4" t="n">
         <v>773</v>
       </c>
@@ -44299,7 +44299,7 @@
       <c r="N774" s="4"/>
       <c r="O774" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="775">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="775">
       <c r="A775" s="4" t="n">
         <v>774</v>
       </c>
@@ -44334,7 +44334,7 @@
       <c r="N775" s="4"/>
       <c r="O775" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="776">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="776">
       <c r="A776" s="4" t="n">
         <v>775</v>
       </c>
@@ -44369,7 +44369,7 @@
       <c r="N776" s="4"/>
       <c r="O776" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="777">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="777">
       <c r="A777" s="4" t="n">
         <v>776</v>
       </c>
@@ -44406,7 +44406,7 @@
       <c r="N777" s="4"/>
       <c r="O777" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="778">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="778">
       <c r="A778" s="4" t="n">
         <v>777</v>
       </c>
@@ -44443,7 +44443,7 @@
       <c r="N778" s="4"/>
       <c r="O778" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="779">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="779">
       <c r="A779" s="4" t="n">
         <v>778</v>
       </c>
@@ -44480,7 +44480,7 @@
       <c r="N779" s="4"/>
       <c r="O779" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="780">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="780">
       <c r="A780" s="4" t="n">
         <v>779</v>
       </c>
@@ -44517,7 +44517,7 @@
       <c r="N780" s="4"/>
       <c r="O780" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="781">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="781">
       <c r="A781" s="4" t="n">
         <v>780</v>
       </c>
@@ -44554,7 +44554,7 @@
       <c r="N781" s="4"/>
       <c r="O781" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="782">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="782">
       <c r="A782" s="4" t="n">
         <v>781</v>
       </c>
@@ -44589,7 +44589,7 @@
       <c r="N782" s="4"/>
       <c r="O782" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="783">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="783">
       <c r="A783" s="4" t="n">
         <v>782</v>
       </c>
